--- a/f_data_exploration/temp.xlsx
+++ b/f_data_exploration/temp.xlsx
@@ -7,6 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Table Copy" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -560,6 +561,122 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" zoomScale="170" zoomScaleNormal="170">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="6" width="1.19921875"/>
+    <col customWidth="1" max="2" min="2" style="6" width="1.19921875"/>
+    <col customWidth="1" max="3" min="3" style="6" width="14"/>
+    <col customWidth="1" max="4" min="4" style="6" width="35.3984375"/>
+    <col customWidth="1" max="5" min="5" style="6" width="1.19921875"/>
+    <col customWidth="1" max="6" min="6" style="6" width="1.19921875"/>
+    <col customWidth="1" max="7" min="7" style="6" width="8.796875"/>
+    <col customWidth="1" max="16384" min="8" style="6" width="8.796875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="9" r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="7.2" r="2" thickBot="1">
+      <c r="A2" s="1" t="n"/>
+      <c r="F2" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="3" thickBot="1">
+      <c r="A3" s="1" t="n"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>temp</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="4" thickBot="1">
+      <c r="A4" s="1" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Cols</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Rows</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="6" thickBot="1">
+      <c r="A6" s="1" t="n"/>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Duplicate Rows</t>
+        </is>
+      </c>
+      <c r="D6" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="n"/>
+      <c r="C8" s="1" t="n"/>
+      <c r="D8" s="1" t="n"/>
+      <c r="E8" s="1" t="n"/>
+      <c r="F8" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -637,11 +754,11 @@
       </c>
       <c r="F6" s="1" t="n"/>
     </row>
-    <row r="7">
+    <row customHeight="1" ht="6.6" r="7">
       <c r="A7" s="1" t="n"/>
       <c r="F7" s="1" t="n"/>
     </row>
-    <row r="8">
+    <row customHeight="1" ht="6.6" r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n"/>
@@ -650,18 +767,6 @@
       <c r="F8" s="1" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:D6">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>

--- a/f_data_exploration/temp.xlsx
+++ b/f_data_exploration/temp.xlsx
@@ -3,11 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table Copy" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Column" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Column Copy" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -63,12 +64,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.09997863704336681"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -148,11 +149,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -172,6 +257,36 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="13" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="6" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -181,6 +296,27 @@
     <xf applyAlignment="1" borderId="3" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="14" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="12" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -555,13 +691,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="FFC00000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" zoomScale="170" zoomScaleNormal="170">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView rightToLeft="1" workbookViewId="0" zoomScale="170" zoomScaleNormal="170">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
@@ -595,7 +732,7 @@
           <t>Name</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="17" t="inlineStr">
         <is>
           <t>temp</t>
         </is>
@@ -609,7 +746,7 @@
           <t>Cols</t>
         </is>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="17" t="n">
         <v>4</v>
       </c>
       <c r="F4" s="1" t="n"/>
@@ -621,7 +758,7 @@
           <t>Rows</t>
         </is>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="18" t="n">
         <v>3</v>
       </c>
       <c r="F5" s="1" t="n"/>
@@ -633,7 +770,7 @@
           <t>Duplicate Rows</t>
         </is>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D6" s="19" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="n"/>
@@ -651,18 +788,6 @@
       <c r="F8" s="1" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:D6">
-    <cfRule priority="1" type="colorScale">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -671,10 +796,125 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <tabColor rgb="FF002060"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" zoomScale="170" zoomScaleNormal="170">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="2" min="1" style="6" width="1"/>
+    <col customWidth="1" max="3" min="3" style="7" width="14.69921875"/>
+    <col customWidth="1" max="5" min="4" style="6" width="8.796875"/>
+    <col customWidth="1" max="7" min="6" style="6" width="1"/>
+    <col customWidth="1" max="16384" min="8" style="6" width="8.796875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="6.6" r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="2" thickBot="1">
+      <c r="A2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="3" thickBot="1">
+      <c r="A3" s="1" t="n"/>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="n"/>
+      <c r="E3" s="26" t="n"/>
+      <c r="G3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>Distinct Values</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="n"/>
+      <c r="E4" s="14" t="n"/>
+      <c r="G4" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="5" thickBot="1">
+      <c r="A5" s="1" t="n"/>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>Null Values</t>
+        </is>
+      </c>
+      <c r="D5" s="24" t="n"/>
+      <c r="E5" s="25" t="n"/>
+      <c r="G5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>Min Value</t>
+        </is>
+      </c>
+      <c r="D6" s="23" t="n"/>
+      <c r="E6" s="27" t="n"/>
+      <c r="G6" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="7" thickBot="1">
+      <c r="A7" s="1" t="n"/>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>Max Value</t>
+        </is>
+      </c>
+      <c r="D7" s="25" t="n"/>
+      <c r="E7" s="28" t="n"/>
+      <c r="G7" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -682,91 +922,100 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="6" width="1.19921875"/>
-    <col customWidth="1" max="2" min="2" style="6" width="1.19921875"/>
-    <col customWidth="1" max="3" min="3" style="6" width="14"/>
-    <col customWidth="1" max="4" min="4" style="6" width="35.3984375"/>
-    <col customWidth="1" max="5" min="5" style="6" width="1.19921875"/>
-    <col customWidth="1" max="6" min="6" style="6" width="1.19921875"/>
-    <col customWidth="1" max="7" min="7" style="6" width="8.796875"/>
+    <col customWidth="1" max="2" min="1" style="6" width="1"/>
+    <col customWidth="1" max="3" min="3" style="7" width="14.69921875"/>
+    <col customWidth="1" max="5" min="4" style="6" width="8.796875"/>
+    <col customWidth="1" max="7" min="6" style="6" width="1"/>
     <col customWidth="1" max="16384" min="8" style="6" width="8.796875"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9" r="1">
+    <row customHeight="1" ht="6.6" r="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="1" t="n"/>
-      <c r="C1" s="1" t="n"/>
+      <c r="C1" s="8" t="n"/>
       <c r="D1" s="1" t="n"/>
       <c r="E1" s="1" t="n"/>
       <c r="F1" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="7.2" r="2" thickBot="1">
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="2" thickBot="1">
       <c r="A2" s="1" t="n"/>
-      <c r="F2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="3" thickBot="1">
       <c r="A3" s="1" t="n"/>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>temp</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.4" r="4" thickBot="1">
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="n"/>
+      <c r="E3" s="26" t="n"/>
+      <c r="G3" s="1" t="n"/>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="n"/>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>Cols</t>
-        </is>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="n"/>
-    </row>
-    <row r="5">
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>Distinct Values</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="n"/>
+      <c r="E4" s="14" t="n"/>
+      <c r="G4" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="5" thickBot="1">
       <c r="A5" s="1" t="n"/>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>Rows</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.4" r="6" thickBot="1">
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>Null Values</t>
+        </is>
+      </c>
+      <c r="D5" s="24" t="n"/>
+      <c r="E5" s="25" t="n"/>
+      <c r="G5" s="1" t="n"/>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>Duplicate Rows</t>
-        </is>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="6.6" r="7">
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>Min Value</t>
+        </is>
+      </c>
+      <c r="D6" s="23" t="n"/>
+      <c r="E6" s="27" t="n"/>
+      <c r="G6" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="7" thickBot="1">
       <c r="A7" s="1" t="n"/>
-      <c r="F7" s="1" t="n"/>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>Max Value</t>
+        </is>
+      </c>
+      <c r="D7" s="25" t="n"/>
+      <c r="E7" s="28" t="n"/>
+      <c r="G7" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="8">
       <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="n"/>
-      <c r="D8" s="1" t="n"/>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>

--- a/f_data_exploration/temp.xlsx
+++ b/f_data_exploration/temp.xlsx
@@ -8,7 +8,10 @@
   <sheets>
     <sheet name="Table" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Column" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Column Copy" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="id" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="name" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="medium" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="volume" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -949,7 +952,365 @@
           <t>Type</t>
         </is>
       </c>
-      <c r="D3" s="21" t="n"/>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="E3" s="26" t="n"/>
+      <c r="G3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>Distinct Values</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="n"/>
+      <c r="E4" s="14" t="n"/>
+      <c r="G4" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="5" thickBot="1">
+      <c r="A5" s="1" t="n"/>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>Null Values</t>
+        </is>
+      </c>
+      <c r="D5" s="24" t="n"/>
+      <c r="E5" s="25" t="n"/>
+      <c r="G5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>Min Value</t>
+        </is>
+      </c>
+      <c r="D6" s="23" t="n"/>
+      <c r="E6" s="27" t="n"/>
+      <c r="G6" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="7" thickBot="1">
+      <c r="A7" s="1" t="n"/>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>Max Value</t>
+        </is>
+      </c>
+      <c r="D7" s="25" t="n"/>
+      <c r="E7" s="28" t="n"/>
+      <c r="G7" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="2" min="1" style="6" width="1"/>
+    <col customWidth="1" max="3" min="3" style="7" width="14.69921875"/>
+    <col customWidth="1" max="5" min="4" style="6" width="8.796875"/>
+    <col customWidth="1" max="7" min="6" style="6" width="1"/>
+    <col customWidth="1" max="16384" min="8" style="6" width="8.796875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="6.6" r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="2" thickBot="1">
+      <c r="A2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="3" thickBot="1">
+      <c r="A3" s="1" t="n"/>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="E3" s="26" t="n"/>
+      <c r="G3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>Distinct Values</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="n"/>
+      <c r="E4" s="14" t="n"/>
+      <c r="G4" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="5" thickBot="1">
+      <c r="A5" s="1" t="n"/>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>Null Values</t>
+        </is>
+      </c>
+      <c r="D5" s="24" t="n"/>
+      <c r="E5" s="25" t="n"/>
+      <c r="G5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>Min Value</t>
+        </is>
+      </c>
+      <c r="D6" s="23" t="n"/>
+      <c r="E6" s="27" t="n"/>
+      <c r="G6" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="7" thickBot="1">
+      <c r="A7" s="1" t="n"/>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>Max Value</t>
+        </is>
+      </c>
+      <c r="D7" s="25" t="n"/>
+      <c r="E7" s="28" t="n"/>
+      <c r="G7" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="2" min="1" style="6" width="1"/>
+    <col customWidth="1" max="3" min="3" style="7" width="14.69921875"/>
+    <col customWidth="1" max="5" min="4" style="6" width="8.796875"/>
+    <col customWidth="1" max="7" min="6" style="6" width="1"/>
+    <col customWidth="1" max="16384" min="8" style="6" width="8.796875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="6.6" r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="2" thickBot="1">
+      <c r="A2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="3" thickBot="1">
+      <c r="A3" s="1" t="n"/>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="E3" s="26" t="n"/>
+      <c r="G3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>Distinct Values</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="n"/>
+      <c r="E4" s="14" t="n"/>
+      <c r="G4" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="5" thickBot="1">
+      <c r="A5" s="1" t="n"/>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>Null Values</t>
+        </is>
+      </c>
+      <c r="D5" s="24" t="n"/>
+      <c r="E5" s="25" t="n"/>
+      <c r="G5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="C6" s="12" t="inlineStr">
+        <is>
+          <t>Min Value</t>
+        </is>
+      </c>
+      <c r="D6" s="23" t="n"/>
+      <c r="E6" s="27" t="n"/>
+      <c r="G6" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="7" thickBot="1">
+      <c r="A7" s="1" t="n"/>
+      <c r="C7" s="11" t="inlineStr">
+        <is>
+          <t>Max Value</t>
+        </is>
+      </c>
+      <c r="D7" s="25" t="n"/>
+      <c r="E7" s="28" t="n"/>
+      <c r="G7" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="G8" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="1" t="n"/>
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="2" min="1" style="6" width="1"/>
+    <col customWidth="1" max="3" min="3" style="7" width="14.69921875"/>
+    <col customWidth="1" max="5" min="4" style="6" width="8.796875"/>
+    <col customWidth="1" max="7" min="6" style="6" width="1"/>
+    <col customWidth="1" max="16384" min="8" style="6" width="8.796875"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="6.6" r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="6.6" r="2" thickBot="1">
+      <c r="A2" s="1" t="n"/>
+      <c r="G2" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="3" thickBot="1">
+      <c r="A3" s="1" t="n"/>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="D3" s="21" t="inlineStr">
+        <is>
+          <t>int</t>
+        </is>
+      </c>
       <c r="E3" s="26" t="n"/>
       <c r="G3" s="1" t="n"/>
     </row>

--- a/f_data_exploration/temp.xlsx
+++ b/f_data_exploration/temp.xlsx
@@ -320,6 +320,15 @@
     <xf applyAlignment="1" borderId="4" fillId="4" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="9" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="10" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,15 +345,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -839,10 +839,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" zoomScale="170" zoomScaleNormal="170">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
@@ -851,12 +851,17 @@
     <col customWidth="1" max="3" min="3" style="7" width="14.69921875"/>
     <col customWidth="1" max="5" min="4" style="6" width="8.796875"/>
     <col customWidth="1" max="7" min="6" style="6" width="1"/>
-    <col customWidth="1" max="8" min="8" style="6" width="4.3984375"/>
+    <col customWidth="1" max="8" min="8" style="6" width="3.59765625"/>
     <col customWidth="1" max="10" min="9" style="6" width="1"/>
     <col customWidth="1" max="11" min="11" style="6" width="14.69921875"/>
     <col customWidth="1" max="13" min="12" style="6" width="8.796875"/>
     <col customWidth="1" max="15" min="14" style="6" width="1"/>
-    <col customWidth="1" max="16384" min="16" style="6" width="8.796875"/>
+    <col customWidth="1" max="16" min="16" style="6" width="3.59765625"/>
+    <col customWidth="1" max="18" min="17" style="6" width="1"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" style="6" width="7.5"/>
+    <col customWidth="1" max="21" min="20" style="6" width="8.796875"/>
+    <col customWidth="1" max="23" min="22" style="6" width="1"/>
+    <col customWidth="1" max="16384" min="24" style="6" width="8.796875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="6.6" r="1">
@@ -874,6 +879,13 @@
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="8" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="2" thickBot="1">
       <c r="A2" s="1" t="n"/>
@@ -885,6 +897,13 @@
       <c r="M2" s="6" t="n"/>
       <c r="N2" s="6" t="n"/>
       <c r="O2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="6" t="n"/>
+      <c r="S2" s="7" t="n"/>
+      <c r="T2" s="6" t="n"/>
+      <c r="U2" s="6" t="n"/>
+      <c r="V2" s="6" t="n"/>
+      <c r="W2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="1" t="n"/>
@@ -907,8 +926,19 @@
       <c r="M3" s="33" t="n"/>
       <c r="N3" s="6" t="n"/>
       <c r="O3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.2" r="4" thickBot="1">
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="6" t="n"/>
+      <c r="S3" s="31" t="inlineStr">
+        <is>
+          <t>Common Lenghts</t>
+        </is>
+      </c>
+      <c r="T3" s="32" t="n"/>
+      <c r="U3" s="33" t="n"/>
+      <c r="V3" s="6" t="n"/>
+      <c r="W3" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="16.2" r="4" thickBot="1">
       <c r="A4" s="1" t="n"/>
       <c r="C4" s="18" t="inlineStr">
         <is>
@@ -945,6 +975,25 @@
       </c>
       <c r="N4" s="6" t="n"/>
       <c r="O4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="18" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="T4" s="14" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="U4" s="15" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+      <c r="V4" s="6" t="n"/>
+      <c r="W4" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="5" thickBot="1">
       <c r="A5" s="1" t="n"/>
@@ -953,7 +1002,7 @@
           <t>Type</t>
         </is>
       </c>
-      <c r="D5" s="23" t="n"/>
+      <c r="D5" s="26" t="n"/>
       <c r="E5" s="33" t="n"/>
       <c r="G5" s="1" t="n"/>
       <c r="I5" s="1" t="n"/>
@@ -963,6 +1012,13 @@
       <c r="M5" s="16" t="n"/>
       <c r="N5" s="6" t="n"/>
       <c r="O5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="6" t="n"/>
+      <c r="S5" s="19" t="n"/>
+      <c r="T5" s="12" t="n"/>
+      <c r="U5" s="16" t="n"/>
+      <c r="V5" s="6" t="n"/>
+      <c r="W5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -981,6 +1037,13 @@
       <c r="M6" s="21" t="n"/>
       <c r="N6" s="6" t="n"/>
       <c r="O6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="6" t="n"/>
+      <c r="S6" s="4" t="n"/>
+      <c r="T6" s="20" t="n"/>
+      <c r="U6" s="21" t="n"/>
+      <c r="V6" s="6" t="n"/>
+      <c r="W6" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="7" thickBot="1">
       <c r="A7" s="1" t="n"/>
@@ -999,6 +1062,13 @@
       <c r="M7" s="21" t="n"/>
       <c r="N7" s="6" t="n"/>
       <c r="O7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="6" t="n"/>
+      <c r="S7" s="4" t="n"/>
+      <c r="T7" s="20" t="n"/>
+      <c r="U7" s="21" t="n"/>
+      <c r="V7" s="6" t="n"/>
+      <c r="W7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -1007,7 +1077,7 @@
           <t>Min Value</t>
         </is>
       </c>
-      <c r="D8" s="25" t="n"/>
+      <c r="D8" s="28" t="n"/>
       <c r="E8" s="34" t="n"/>
       <c r="G8" s="1" t="n"/>
       <c r="I8" s="1" t="n"/>
@@ -1017,6 +1087,13 @@
       <c r="M8" s="21" t="n"/>
       <c r="N8" s="6" t="n"/>
       <c r="O8" s="1" t="n"/>
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="6" t="n"/>
+      <c r="S8" s="4" t="n"/>
+      <c r="T8" s="20" t="n"/>
+      <c r="U8" s="21" t="n"/>
+      <c r="V8" s="6" t="n"/>
+      <c r="W8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="9" thickBot="1">
       <c r="A9" s="1" t="n"/>
@@ -1025,7 +1102,7 @@
           <t>Max Value</t>
         </is>
       </c>
-      <c r="D9" s="27" t="n"/>
+      <c r="D9" s="30" t="n"/>
       <c r="E9" s="35" t="n"/>
       <c r="G9" s="1" t="n"/>
       <c r="I9" s="1" t="n"/>
@@ -1035,6 +1112,13 @@
       <c r="M9" s="21" t="n"/>
       <c r="N9" s="6" t="n"/>
       <c r="O9" s="1" t="n"/>
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="6" t="n"/>
+      <c r="S9" s="4" t="n"/>
+      <c r="T9" s="20" t="n"/>
+      <c r="U9" s="21" t="n"/>
+      <c r="V9" s="6" t="n"/>
+      <c r="W9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="10">
       <c r="A10" s="1" t="n"/>
@@ -1046,6 +1130,13 @@
       <c r="M10" s="21" t="n"/>
       <c r="N10" s="6" t="n"/>
       <c r="O10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="6" t="n"/>
+      <c r="S10" s="4" t="n"/>
+      <c r="T10" s="20" t="n"/>
+      <c r="U10" s="21" t="n"/>
+      <c r="V10" s="6" t="n"/>
+      <c r="W10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="11">
       <c r="A11" s="1" t="n"/>
@@ -1062,6 +1153,13 @@
       <c r="M11" s="21" t="n"/>
       <c r="N11" s="6" t="n"/>
       <c r="O11" s="1" t="n"/>
+      <c r="Q11" s="1" t="n"/>
+      <c r="R11" s="6" t="n"/>
+      <c r="S11" s="4" t="n"/>
+      <c r="T11" s="20" t="n"/>
+      <c r="U11" s="21" t="n"/>
+      <c r="V11" s="6" t="n"/>
+      <c r="W11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="I12" s="1" t="n"/>
@@ -1071,8 +1169,15 @@
       <c r="M12" s="21" t="n"/>
       <c r="N12" s="6" t="n"/>
       <c r="O12" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="13">
+      <c r="Q12" s="1" t="n"/>
+      <c r="R12" s="6" t="n"/>
+      <c r="S12" s="4" t="n"/>
+      <c r="T12" s="20" t="n"/>
+      <c r="U12" s="21" t="n"/>
+      <c r="V12" s="6" t="n"/>
+      <c r="W12" s="1" t="n"/>
+    </row>
+    <row r="13">
       <c r="C13" s="6" t="n"/>
       <c r="I13" s="1" t="n"/>
       <c r="J13" s="6" t="n"/>
@@ -1081,8 +1186,15 @@
       <c r="M13" s="21" t="n"/>
       <c r="N13" s="6" t="n"/>
       <c r="O13" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="14" thickBot="1">
+      <c r="Q13" s="1" t="n"/>
+      <c r="R13" s="6" t="n"/>
+      <c r="S13" s="4" t="n"/>
+      <c r="T13" s="20" t="n"/>
+      <c r="U13" s="21" t="n"/>
+      <c r="V13" s="6" t="n"/>
+      <c r="W13" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="14" thickBot="1">
       <c r="C14" s="6" t="n"/>
       <c r="I14" s="1" t="n"/>
       <c r="J14" s="6" t="n"/>
@@ -1091,6 +1203,13 @@
       <c r="M14" s="17" t="n"/>
       <c r="N14" s="6" t="n"/>
       <c r="O14" s="1" t="n"/>
+      <c r="Q14" s="1" t="n"/>
+      <c r="R14" s="6" t="n"/>
+      <c r="S14" s="5" t="n"/>
+      <c r="T14" s="13" t="n"/>
+      <c r="U14" s="17" t="n"/>
+      <c r="V14" s="6" t="n"/>
+      <c r="W14" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="15">
       <c r="C15" s="6" t="n"/>
@@ -1101,6 +1220,13 @@
       <c r="M15" s="6" t="n"/>
       <c r="N15" s="6" t="n"/>
       <c r="O15" s="1" t="n"/>
+      <c r="Q15" s="1" t="n"/>
+      <c r="R15" s="6" t="n"/>
+      <c r="S15" s="7" t="n"/>
+      <c r="T15" s="6" t="n"/>
+      <c r="U15" s="6" t="n"/>
+      <c r="V15" s="6" t="n"/>
+      <c r="W15" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="16">
       <c r="C16" s="6" t="n"/>
@@ -1111,6 +1237,13 @@
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="n"/>
+      <c r="S16" s="8" t="n"/>
+      <c r="T16" s="1" t="n"/>
+      <c r="U16" s="1" t="n"/>
+      <c r="V16" s="1" t="n"/>
+      <c r="W16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="6" t="n"/>
@@ -1133,23 +1266,9 @@
     <row r="23">
       <c r="C23" s="6" t="n"/>
     </row>
-    <row r="24">
-      <c r="C24" s="6" t="n"/>
-    </row>
-    <row r="25">
-      <c r="C25" s="6" t="n"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="27">
-      <c r="C27" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="28">
-      <c r="C28" s="6" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -1157,7 +1276,7 @@
     <mergeCell ref="K3:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule priority="10" type="colorScale">
+    <cfRule priority="12" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1169,6 +1288,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
+    <cfRule priority="13" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L14">
+    <cfRule priority="8" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M14">
+    <cfRule priority="9" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:E9">
     <cfRule priority="11" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
@@ -1180,8 +1335,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L14">
-    <cfRule priority="6" type="colorScale">
+  <conditionalFormatting sqref="T5:T14">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1192,20 +1347,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M14">
-    <cfRule priority="7" type="colorScale">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:E9">
-    <cfRule priority="9" type="colorScale">
+  <conditionalFormatting sqref="U5:U14">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1228,7 +1371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1240,12 +1383,17 @@
     <col customWidth="1" max="3" min="3" style="7" width="14.69921875"/>
     <col customWidth="1" max="5" min="4" style="6" width="8.796875"/>
     <col customWidth="1" max="7" min="6" style="6" width="1"/>
-    <col customWidth="1" max="8" min="8" style="6" width="4.3984375"/>
+    <col customWidth="1" max="8" min="8" style="6" width="3.59765625"/>
     <col customWidth="1" max="10" min="9" style="6" width="1"/>
     <col customWidth="1" max="11" min="11" style="6" width="14.69921875"/>
     <col customWidth="1" max="13" min="12" style="6" width="8.796875"/>
     <col customWidth="1" max="15" min="14" style="6" width="1"/>
-    <col customWidth="1" max="16384" min="16" style="6" width="8.796875"/>
+    <col customWidth="1" max="16" min="16" style="6" width="3.59765625"/>
+    <col customWidth="1" max="18" min="17" style="6" width="1"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" style="6" width="7.5"/>
+    <col customWidth="1" max="21" min="20" style="6" width="8.796875"/>
+    <col customWidth="1" max="23" min="22" style="6" width="1"/>
+    <col customWidth="1" max="16384" min="24" style="6" width="8.796875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="6.6" r="1">
@@ -1263,6 +1411,13 @@
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="8" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="2" thickBot="1">
       <c r="A2" s="1" t="n"/>
@@ -1274,6 +1429,13 @@
       <c r="M2" s="6" t="n"/>
       <c r="N2" s="6" t="n"/>
       <c r="O2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="6" t="n"/>
+      <c r="S2" s="7" t="n"/>
+      <c r="T2" s="6" t="n"/>
+      <c r="U2" s="6" t="n"/>
+      <c r="V2" s="6" t="n"/>
+      <c r="W2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="1" t="n"/>
@@ -1296,8 +1458,19 @@
       <c r="M3" s="33" t="n"/>
       <c r="N3" s="6" t="n"/>
       <c r="O3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.2" r="4" thickBot="1">
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="6" t="n"/>
+      <c r="S3" s="31" t="inlineStr">
+        <is>
+          <t>Common Lenghts</t>
+        </is>
+      </c>
+      <c r="T3" s="32" t="n"/>
+      <c r="U3" s="33" t="n"/>
+      <c r="V3" s="6" t="n"/>
+      <c r="W3" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="16.2" r="4" thickBot="1">
       <c r="A4" s="1" t="n"/>
       <c r="C4" s="18" t="inlineStr">
         <is>
@@ -1334,6 +1507,25 @@
       </c>
       <c r="N4" s="6" t="n"/>
       <c r="O4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="18" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="T4" s="14" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="U4" s="15" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+      <c r="V4" s="6" t="n"/>
+      <c r="W4" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="5" thickBot="1">
       <c r="A5" s="1" t="n"/>
@@ -1342,7 +1534,7 @@
           <t>Type</t>
         </is>
       </c>
-      <c r="D5" s="23" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>int</t>
         </is>
@@ -1362,6 +1554,19 @@
       </c>
       <c r="N5" s="6" t="n"/>
       <c r="O5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="6" t="n"/>
+      <c r="S5" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6" t="n"/>
+      <c r="W5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -1390,6 +1595,13 @@
       </c>
       <c r="N6" s="6" t="n"/>
       <c r="O6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="6" t="n"/>
+      <c r="S6" s="4" t="n"/>
+      <c r="T6" s="20" t="n"/>
+      <c r="U6" s="21" t="n"/>
+      <c r="V6" s="6" t="n"/>
+      <c r="W6" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="7" thickBot="1">
       <c r="A7" s="1" t="n"/>
@@ -1412,6 +1624,13 @@
       <c r="M7" s="21" t="n"/>
       <c r="N7" s="6" t="n"/>
       <c r="O7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="6" t="n"/>
+      <c r="S7" s="4" t="n"/>
+      <c r="T7" s="20" t="n"/>
+      <c r="U7" s="21" t="n"/>
+      <c r="V7" s="6" t="n"/>
+      <c r="W7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -1420,7 +1639,7 @@
           <t>Min Value</t>
         </is>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="28" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="34" t="n"/>
@@ -1432,6 +1651,13 @@
       <c r="M8" s="21" t="n"/>
       <c r="N8" s="6" t="n"/>
       <c r="O8" s="1" t="n"/>
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="6" t="n"/>
+      <c r="S8" s="4" t="n"/>
+      <c r="T8" s="20" t="n"/>
+      <c r="U8" s="21" t="n"/>
+      <c r="V8" s="6" t="n"/>
+      <c r="W8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="9" thickBot="1">
       <c r="A9" s="1" t="n"/>
@@ -1440,7 +1666,7 @@
           <t>Max Value</t>
         </is>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="30" t="n">
         <v>2</v>
       </c>
       <c r="E9" s="35" t="n"/>
@@ -1452,6 +1678,13 @@
       <c r="M9" s="21" t="n"/>
       <c r="N9" s="6" t="n"/>
       <c r="O9" s="1" t="n"/>
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="6" t="n"/>
+      <c r="S9" s="4" t="n"/>
+      <c r="T9" s="20" t="n"/>
+      <c r="U9" s="21" t="n"/>
+      <c r="V9" s="6" t="n"/>
+      <c r="W9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="10">
       <c r="A10" s="1" t="n"/>
@@ -1463,6 +1696,13 @@
       <c r="M10" s="21" t="n"/>
       <c r="N10" s="6" t="n"/>
       <c r="O10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="6" t="n"/>
+      <c r="S10" s="4" t="n"/>
+      <c r="T10" s="20" t="n"/>
+      <c r="U10" s="21" t="n"/>
+      <c r="V10" s="6" t="n"/>
+      <c r="W10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="11">
       <c r="A11" s="1" t="n"/>
@@ -1479,6 +1719,13 @@
       <c r="M11" s="21" t="n"/>
       <c r="N11" s="6" t="n"/>
       <c r="O11" s="1" t="n"/>
+      <c r="Q11" s="1" t="n"/>
+      <c r="R11" s="6" t="n"/>
+      <c r="S11" s="4" t="n"/>
+      <c r="T11" s="20" t="n"/>
+      <c r="U11" s="21" t="n"/>
+      <c r="V11" s="6" t="n"/>
+      <c r="W11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="I12" s="1" t="n"/>
@@ -1488,8 +1735,15 @@
       <c r="M12" s="21" t="n"/>
       <c r="N12" s="6" t="n"/>
       <c r="O12" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="13">
+      <c r="Q12" s="1" t="n"/>
+      <c r="R12" s="6" t="n"/>
+      <c r="S12" s="4" t="n"/>
+      <c r="T12" s="20" t="n"/>
+      <c r="U12" s="21" t="n"/>
+      <c r="V12" s="6" t="n"/>
+      <c r="W12" s="1" t="n"/>
+    </row>
+    <row r="13">
       <c r="C13" s="6" t="n"/>
       <c r="I13" s="1" t="n"/>
       <c r="J13" s="6" t="n"/>
@@ -1498,8 +1752,15 @@
       <c r="M13" s="21" t="n"/>
       <c r="N13" s="6" t="n"/>
       <c r="O13" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="14" thickBot="1">
+      <c r="Q13" s="1" t="n"/>
+      <c r="R13" s="6" t="n"/>
+      <c r="S13" s="4" t="n"/>
+      <c r="T13" s="20" t="n"/>
+      <c r="U13" s="21" t="n"/>
+      <c r="V13" s="6" t="n"/>
+      <c r="W13" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="14" thickBot="1">
       <c r="C14" s="6" t="n"/>
       <c r="I14" s="1" t="n"/>
       <c r="J14" s="6" t="n"/>
@@ -1508,6 +1769,13 @@
       <c r="M14" s="17" t="n"/>
       <c r="N14" s="6" t="n"/>
       <c r="O14" s="1" t="n"/>
+      <c r="Q14" s="1" t="n"/>
+      <c r="R14" s="6" t="n"/>
+      <c r="S14" s="5" t="n"/>
+      <c r="T14" s="13" t="n"/>
+      <c r="U14" s="17" t="n"/>
+      <c r="V14" s="6" t="n"/>
+      <c r="W14" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="15">
       <c r="C15" s="6" t="n"/>
@@ -1518,6 +1786,13 @@
       <c r="M15" s="6" t="n"/>
       <c r="N15" s="6" t="n"/>
       <c r="O15" s="1" t="n"/>
+      <c r="Q15" s="1" t="n"/>
+      <c r="R15" s="6" t="n"/>
+      <c r="S15" s="7" t="n"/>
+      <c r="T15" s="6" t="n"/>
+      <c r="U15" s="6" t="n"/>
+      <c r="V15" s="6" t="n"/>
+      <c r="W15" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="16">
       <c r="C16" s="6" t="n"/>
@@ -1528,6 +1803,13 @@
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="n"/>
+      <c r="S16" s="8" t="n"/>
+      <c r="T16" s="1" t="n"/>
+      <c r="U16" s="1" t="n"/>
+      <c r="V16" s="1" t="n"/>
+      <c r="W16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="6" t="n"/>
@@ -1550,23 +1832,9 @@
     <row r="23">
       <c r="C23" s="6" t="n"/>
     </row>
-    <row r="24">
-      <c r="C24" s="6" t="n"/>
-    </row>
-    <row r="25">
-      <c r="C25" s="6" t="n"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="27">
-      <c r="C27" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="28">
-      <c r="C28" s="6" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -1585,7 +1853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1597,12 +1865,17 @@
     <col customWidth="1" max="3" min="3" style="7" width="14.69921875"/>
     <col customWidth="1" max="5" min="4" style="6" width="8.796875"/>
     <col customWidth="1" max="7" min="6" style="6" width="1"/>
-    <col customWidth="1" max="8" min="8" style="6" width="4.3984375"/>
+    <col customWidth="1" max="8" min="8" style="6" width="3.59765625"/>
     <col customWidth="1" max="10" min="9" style="6" width="1"/>
     <col customWidth="1" max="11" min="11" style="6" width="14.69921875"/>
     <col customWidth="1" max="13" min="12" style="6" width="8.796875"/>
     <col customWidth="1" max="15" min="14" style="6" width="1"/>
-    <col customWidth="1" max="16384" min="16" style="6" width="8.796875"/>
+    <col customWidth="1" max="16" min="16" style="6" width="3.59765625"/>
+    <col customWidth="1" max="18" min="17" style="6" width="1"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" style="6" width="7.5"/>
+    <col customWidth="1" max="21" min="20" style="6" width="8.796875"/>
+    <col customWidth="1" max="23" min="22" style="6" width="1"/>
+    <col customWidth="1" max="16384" min="24" style="6" width="8.796875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="6.6" r="1">
@@ -1620,6 +1893,13 @@
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="8" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="2" thickBot="1">
       <c r="A2" s="1" t="n"/>
@@ -1631,6 +1911,13 @@
       <c r="M2" s="6" t="n"/>
       <c r="N2" s="6" t="n"/>
       <c r="O2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="6" t="n"/>
+      <c r="S2" s="7" t="n"/>
+      <c r="T2" s="6" t="n"/>
+      <c r="U2" s="6" t="n"/>
+      <c r="V2" s="6" t="n"/>
+      <c r="W2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="1" t="n"/>
@@ -1653,8 +1940,19 @@
       <c r="M3" s="33" t="n"/>
       <c r="N3" s="6" t="n"/>
       <c r="O3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.2" r="4" thickBot="1">
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="6" t="n"/>
+      <c r="S3" s="31" t="inlineStr">
+        <is>
+          <t>Common Lenghts</t>
+        </is>
+      </c>
+      <c r="T3" s="32" t="n"/>
+      <c r="U3" s="33" t="n"/>
+      <c r="V3" s="6" t="n"/>
+      <c r="W3" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="16.2" r="4" thickBot="1">
       <c r="A4" s="1" t="n"/>
       <c r="C4" s="18" t="inlineStr">
         <is>
@@ -1691,6 +1989,25 @@
       </c>
       <c r="N4" s="6" t="n"/>
       <c r="O4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="18" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="T4" s="14" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="U4" s="15" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+      <c r="V4" s="6" t="n"/>
+      <c r="W4" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="5" thickBot="1">
       <c r="A5" s="1" t="n"/>
@@ -1699,7 +2016,7 @@
           <t>Type</t>
         </is>
       </c>
-      <c r="D5" s="23" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>str</t>
         </is>
@@ -1721,6 +2038,19 @@
       </c>
       <c r="N5" s="6" t="n"/>
       <c r="O5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="6" t="n"/>
+      <c r="S5" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" s="16" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="V5" s="6" t="n"/>
+      <c r="W5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -1751,6 +2081,19 @@
       </c>
       <c r="N6" s="6" t="n"/>
       <c r="O6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="6" t="n"/>
+      <c r="S6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="V6" s="6" t="n"/>
+      <c r="W6" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="7" thickBot="1">
       <c r="A7" s="1" t="n"/>
@@ -1773,6 +2116,13 @@
       <c r="M7" s="21" t="n"/>
       <c r="N7" s="6" t="n"/>
       <c r="O7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="6" t="n"/>
+      <c r="S7" s="4" t="n"/>
+      <c r="T7" s="20" t="n"/>
+      <c r="U7" s="21" t="n"/>
+      <c r="V7" s="6" t="n"/>
+      <c r="W7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -1781,7 +2131,7 @@
           <t>Min Value</t>
         </is>
       </c>
-      <c r="D8" s="25" t="inlineStr">
+      <c r="D8" s="28" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -1795,6 +2145,13 @@
       <c r="M8" s="21" t="n"/>
       <c r="N8" s="6" t="n"/>
       <c r="O8" s="1" t="n"/>
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="6" t="n"/>
+      <c r="S8" s="4" t="n"/>
+      <c r="T8" s="20" t="n"/>
+      <c r="U8" s="21" t="n"/>
+      <c r="V8" s="6" t="n"/>
+      <c r="W8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="9" thickBot="1">
       <c r="A9" s="1" t="n"/>
@@ -1803,7 +2160,7 @@
           <t>Max Value</t>
         </is>
       </c>
-      <c r="D9" s="27" t="inlineStr">
+      <c r="D9" s="30" t="inlineStr">
         <is>
           <t>BB</t>
         </is>
@@ -1817,6 +2174,13 @@
       <c r="M9" s="21" t="n"/>
       <c r="N9" s="6" t="n"/>
       <c r="O9" s="1" t="n"/>
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="6" t="n"/>
+      <c r="S9" s="4" t="n"/>
+      <c r="T9" s="20" t="n"/>
+      <c r="U9" s="21" t="n"/>
+      <c r="V9" s="6" t="n"/>
+      <c r="W9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="10">
       <c r="A10" s="1" t="n"/>
@@ -1828,6 +2192,13 @@
       <c r="M10" s="21" t="n"/>
       <c r="N10" s="6" t="n"/>
       <c r="O10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="6" t="n"/>
+      <c r="S10" s="4" t="n"/>
+      <c r="T10" s="20" t="n"/>
+      <c r="U10" s="21" t="n"/>
+      <c r="V10" s="6" t="n"/>
+      <c r="W10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="11">
       <c r="A11" s="1" t="n"/>
@@ -1844,6 +2215,13 @@
       <c r="M11" s="21" t="n"/>
       <c r="N11" s="6" t="n"/>
       <c r="O11" s="1" t="n"/>
+      <c r="Q11" s="1" t="n"/>
+      <c r="R11" s="6" t="n"/>
+      <c r="S11" s="4" t="n"/>
+      <c r="T11" s="20" t="n"/>
+      <c r="U11" s="21" t="n"/>
+      <c r="V11" s="6" t="n"/>
+      <c r="W11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="I12" s="1" t="n"/>
@@ -1853,8 +2231,15 @@
       <c r="M12" s="21" t="n"/>
       <c r="N12" s="6" t="n"/>
       <c r="O12" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="13">
+      <c r="Q12" s="1" t="n"/>
+      <c r="R12" s="6" t="n"/>
+      <c r="S12" s="4" t="n"/>
+      <c r="T12" s="20" t="n"/>
+      <c r="U12" s="21" t="n"/>
+      <c r="V12" s="6" t="n"/>
+      <c r="W12" s="1" t="n"/>
+    </row>
+    <row r="13">
       <c r="C13" s="6" t="n"/>
       <c r="I13" s="1" t="n"/>
       <c r="J13" s="6" t="n"/>
@@ -1863,8 +2248,15 @@
       <c r="M13" s="21" t="n"/>
       <c r="N13" s="6" t="n"/>
       <c r="O13" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="14" thickBot="1">
+      <c r="Q13" s="1" t="n"/>
+      <c r="R13" s="6" t="n"/>
+      <c r="S13" s="4" t="n"/>
+      <c r="T13" s="20" t="n"/>
+      <c r="U13" s="21" t="n"/>
+      <c r="V13" s="6" t="n"/>
+      <c r="W13" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="14" thickBot="1">
       <c r="C14" s="6" t="n"/>
       <c r="I14" s="1" t="n"/>
       <c r="J14" s="6" t="n"/>
@@ -1873,6 +2265,13 @@
       <c r="M14" s="17" t="n"/>
       <c r="N14" s="6" t="n"/>
       <c r="O14" s="1" t="n"/>
+      <c r="Q14" s="1" t="n"/>
+      <c r="R14" s="6" t="n"/>
+      <c r="S14" s="5" t="n"/>
+      <c r="T14" s="13" t="n"/>
+      <c r="U14" s="17" t="n"/>
+      <c r="V14" s="6" t="n"/>
+      <c r="W14" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="15">
       <c r="C15" s="6" t="n"/>
@@ -1883,6 +2282,13 @@
       <c r="M15" s="6" t="n"/>
       <c r="N15" s="6" t="n"/>
       <c r="O15" s="1" t="n"/>
+      <c r="Q15" s="1" t="n"/>
+      <c r="R15" s="6" t="n"/>
+      <c r="S15" s="7" t="n"/>
+      <c r="T15" s="6" t="n"/>
+      <c r="U15" s="6" t="n"/>
+      <c r="V15" s="6" t="n"/>
+      <c r="W15" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="16">
       <c r="C16" s="6" t="n"/>
@@ -1893,6 +2299,13 @@
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="n"/>
+      <c r="S16" s="8" t="n"/>
+      <c r="T16" s="1" t="n"/>
+      <c r="U16" s="1" t="n"/>
+      <c r="V16" s="1" t="n"/>
+      <c r="W16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="6" t="n"/>
@@ -1915,23 +2328,9 @@
     <row r="23">
       <c r="C23" s="6" t="n"/>
     </row>
-    <row r="24">
-      <c r="C24" s="6" t="n"/>
-    </row>
-    <row r="25">
-      <c r="C25" s="6" t="n"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="27">
-      <c r="C27" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="28">
-      <c r="C28" s="6" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -1950,7 +2349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,12 +2361,17 @@
     <col customWidth="1" max="3" min="3" style="7" width="14.69921875"/>
     <col customWidth="1" max="5" min="4" style="6" width="8.796875"/>
     <col customWidth="1" max="7" min="6" style="6" width="1"/>
-    <col customWidth="1" max="8" min="8" style="6" width="4.3984375"/>
+    <col customWidth="1" max="8" min="8" style="6" width="3.59765625"/>
     <col customWidth="1" max="10" min="9" style="6" width="1"/>
     <col customWidth="1" max="11" min="11" style="6" width="14.69921875"/>
     <col customWidth="1" max="13" min="12" style="6" width="8.796875"/>
     <col customWidth="1" max="15" min="14" style="6" width="1"/>
-    <col customWidth="1" max="16384" min="16" style="6" width="8.796875"/>
+    <col customWidth="1" max="16" min="16" style="6" width="3.59765625"/>
+    <col customWidth="1" max="18" min="17" style="6" width="1"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" style="6" width="7.5"/>
+    <col customWidth="1" max="21" min="20" style="6" width="8.796875"/>
+    <col customWidth="1" max="23" min="22" style="6" width="1"/>
+    <col customWidth="1" max="16384" min="24" style="6" width="8.796875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="6.6" r="1">
@@ -1985,6 +2389,13 @@
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="8" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="2" thickBot="1">
       <c r="A2" s="1" t="n"/>
@@ -1996,6 +2407,13 @@
       <c r="M2" s="6" t="n"/>
       <c r="N2" s="6" t="n"/>
       <c r="O2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="6" t="n"/>
+      <c r="S2" s="7" t="n"/>
+      <c r="T2" s="6" t="n"/>
+      <c r="U2" s="6" t="n"/>
+      <c r="V2" s="6" t="n"/>
+      <c r="W2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="1" t="n"/>
@@ -2018,8 +2436,19 @@
       <c r="M3" s="33" t="n"/>
       <c r="N3" s="6" t="n"/>
       <c r="O3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.2" r="4" thickBot="1">
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="6" t="n"/>
+      <c r="S3" s="31" t="inlineStr">
+        <is>
+          <t>Common Lenghts</t>
+        </is>
+      </c>
+      <c r="T3" s="32" t="n"/>
+      <c r="U3" s="33" t="n"/>
+      <c r="V3" s="6" t="n"/>
+      <c r="W3" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="16.2" r="4" thickBot="1">
       <c r="A4" s="1" t="n"/>
       <c r="C4" s="18" t="inlineStr">
         <is>
@@ -2056,6 +2485,25 @@
       </c>
       <c r="N4" s="6" t="n"/>
       <c r="O4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="18" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="T4" s="14" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="U4" s="15" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+      <c r="V4" s="6" t="n"/>
+      <c r="W4" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="5" thickBot="1">
       <c r="A5" s="1" t="n"/>
@@ -2064,7 +2512,7 @@
           <t>Type</t>
         </is>
       </c>
-      <c r="D5" s="23" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>int</t>
         </is>
@@ -2084,6 +2532,19 @@
       </c>
       <c r="N5" s="6" t="n"/>
       <c r="O5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="6" t="n"/>
+      <c r="S5" s="19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6" t="n"/>
+      <c r="W5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -2112,6 +2573,13 @@
       </c>
       <c r="N6" s="6" t="n"/>
       <c r="O6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="6" t="n"/>
+      <c r="S6" s="4" t="n"/>
+      <c r="T6" s="20" t="n"/>
+      <c r="U6" s="21" t="n"/>
+      <c r="V6" s="6" t="n"/>
+      <c r="W6" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="7" thickBot="1">
       <c r="A7" s="1" t="n"/>
@@ -2134,6 +2602,13 @@
       <c r="M7" s="21" t="n"/>
       <c r="N7" s="6" t="n"/>
       <c r="O7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="6" t="n"/>
+      <c r="S7" s="4" t="n"/>
+      <c r="T7" s="20" t="n"/>
+      <c r="U7" s="21" t="n"/>
+      <c r="V7" s="6" t="n"/>
+      <c r="W7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -2142,7 +2617,7 @@
           <t>Min Value</t>
         </is>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="28" t="n">
         <v>888</v>
       </c>
       <c r="E8" s="34" t="n"/>
@@ -2154,6 +2629,13 @@
       <c r="M8" s="21" t="n"/>
       <c r="N8" s="6" t="n"/>
       <c r="O8" s="1" t="n"/>
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="6" t="n"/>
+      <c r="S8" s="4" t="n"/>
+      <c r="T8" s="20" t="n"/>
+      <c r="U8" s="21" t="n"/>
+      <c r="V8" s="6" t="n"/>
+      <c r="W8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="9" thickBot="1">
       <c r="A9" s="1" t="n"/>
@@ -2162,7 +2644,7 @@
           <t>Max Value</t>
         </is>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="30" t="n">
         <v>999</v>
       </c>
       <c r="E9" s="35" t="n"/>
@@ -2174,6 +2656,13 @@
       <c r="M9" s="21" t="n"/>
       <c r="N9" s="6" t="n"/>
       <c r="O9" s="1" t="n"/>
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="6" t="n"/>
+      <c r="S9" s="4" t="n"/>
+      <c r="T9" s="20" t="n"/>
+      <c r="U9" s="21" t="n"/>
+      <c r="V9" s="6" t="n"/>
+      <c r="W9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="10">
       <c r="A10" s="1" t="n"/>
@@ -2185,6 +2674,13 @@
       <c r="M10" s="21" t="n"/>
       <c r="N10" s="6" t="n"/>
       <c r="O10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="6" t="n"/>
+      <c r="S10" s="4" t="n"/>
+      <c r="T10" s="20" t="n"/>
+      <c r="U10" s="21" t="n"/>
+      <c r="V10" s="6" t="n"/>
+      <c r="W10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="11">
       <c r="A11" s="1" t="n"/>
@@ -2201,6 +2697,13 @@
       <c r="M11" s="21" t="n"/>
       <c r="N11" s="6" t="n"/>
       <c r="O11" s="1" t="n"/>
+      <c r="Q11" s="1" t="n"/>
+      <c r="R11" s="6" t="n"/>
+      <c r="S11" s="4" t="n"/>
+      <c r="T11" s="20" t="n"/>
+      <c r="U11" s="21" t="n"/>
+      <c r="V11" s="6" t="n"/>
+      <c r="W11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="I12" s="1" t="n"/>
@@ -2210,8 +2713,15 @@
       <c r="M12" s="21" t="n"/>
       <c r="N12" s="6" t="n"/>
       <c r="O12" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="13">
+      <c r="Q12" s="1" t="n"/>
+      <c r="R12" s="6" t="n"/>
+      <c r="S12" s="4" t="n"/>
+      <c r="T12" s="20" t="n"/>
+      <c r="U12" s="21" t="n"/>
+      <c r="V12" s="6" t="n"/>
+      <c r="W12" s="1" t="n"/>
+    </row>
+    <row r="13">
       <c r="C13" s="6" t="n"/>
       <c r="I13" s="1" t="n"/>
       <c r="J13" s="6" t="n"/>
@@ -2220,8 +2730,15 @@
       <c r="M13" s="21" t="n"/>
       <c r="N13" s="6" t="n"/>
       <c r="O13" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="14" thickBot="1">
+      <c r="Q13" s="1" t="n"/>
+      <c r="R13" s="6" t="n"/>
+      <c r="S13" s="4" t="n"/>
+      <c r="T13" s="20" t="n"/>
+      <c r="U13" s="21" t="n"/>
+      <c r="V13" s="6" t="n"/>
+      <c r="W13" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="14" thickBot="1">
       <c r="C14" s="6" t="n"/>
       <c r="I14" s="1" t="n"/>
       <c r="J14" s="6" t="n"/>
@@ -2230,6 +2747,13 @@
       <c r="M14" s="17" t="n"/>
       <c r="N14" s="6" t="n"/>
       <c r="O14" s="1" t="n"/>
+      <c r="Q14" s="1" t="n"/>
+      <c r="R14" s="6" t="n"/>
+      <c r="S14" s="5" t="n"/>
+      <c r="T14" s="13" t="n"/>
+      <c r="U14" s="17" t="n"/>
+      <c r="V14" s="6" t="n"/>
+      <c r="W14" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="15">
       <c r="C15" s="6" t="n"/>
@@ -2240,6 +2764,13 @@
       <c r="M15" s="6" t="n"/>
       <c r="N15" s="6" t="n"/>
       <c r="O15" s="1" t="n"/>
+      <c r="Q15" s="1" t="n"/>
+      <c r="R15" s="6" t="n"/>
+      <c r="S15" s="7" t="n"/>
+      <c r="T15" s="6" t="n"/>
+      <c r="U15" s="6" t="n"/>
+      <c r="V15" s="6" t="n"/>
+      <c r="W15" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="16">
       <c r="C16" s="6" t="n"/>
@@ -2250,6 +2781,13 @@
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="n"/>
+      <c r="S16" s="8" t="n"/>
+      <c r="T16" s="1" t="n"/>
+      <c r="U16" s="1" t="n"/>
+      <c r="V16" s="1" t="n"/>
+      <c r="W16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="6" t="n"/>
@@ -2272,23 +2810,9 @@
     <row r="23">
       <c r="C23" s="6" t="n"/>
     </row>
-    <row r="24">
-      <c r="C24" s="6" t="n"/>
-    </row>
-    <row r="25">
-      <c r="C25" s="6" t="n"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="27">
-      <c r="C27" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="28">
-      <c r="C28" s="6" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -2307,7 +2831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2319,12 +2843,17 @@
     <col customWidth="1" max="3" min="3" style="7" width="14.69921875"/>
     <col customWidth="1" max="5" min="4" style="6" width="8.796875"/>
     <col customWidth="1" max="7" min="6" style="6" width="1"/>
-    <col customWidth="1" max="8" min="8" style="6" width="4.3984375"/>
+    <col customWidth="1" max="8" min="8" style="6" width="3.59765625"/>
     <col customWidth="1" max="10" min="9" style="6" width="1"/>
     <col customWidth="1" max="11" min="11" style="6" width="14.69921875"/>
     <col customWidth="1" max="13" min="12" style="6" width="8.796875"/>
     <col customWidth="1" max="15" min="14" style="6" width="1"/>
-    <col customWidth="1" max="16384" min="16" style="6" width="8.796875"/>
+    <col customWidth="1" max="16" min="16" style="6" width="3.59765625"/>
+    <col customWidth="1" max="18" min="17" style="6" width="1"/>
+    <col bestFit="1" customWidth="1" max="19" min="19" style="6" width="7.5"/>
+    <col customWidth="1" max="21" min="20" style="6" width="8.796875"/>
+    <col customWidth="1" max="23" min="22" style="6" width="1"/>
+    <col customWidth="1" max="16384" min="24" style="6" width="8.796875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="6.6" r="1">
@@ -2342,6 +2871,13 @@
       <c r="M1" s="1" t="n"/>
       <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
+      <c r="S1" s="8" t="n"/>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
+      <c r="W1" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="2" thickBot="1">
       <c r="A2" s="1" t="n"/>
@@ -2353,6 +2889,13 @@
       <c r="M2" s="6" t="n"/>
       <c r="N2" s="6" t="n"/>
       <c r="O2" s="1" t="n"/>
+      <c r="Q2" s="1" t="n"/>
+      <c r="R2" s="6" t="n"/>
+      <c r="S2" s="7" t="n"/>
+      <c r="T2" s="6" t="n"/>
+      <c r="U2" s="6" t="n"/>
+      <c r="V2" s="6" t="n"/>
+      <c r="W2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="1" t="n"/>
@@ -2375,8 +2918,19 @@
       <c r="M3" s="33" t="n"/>
       <c r="N3" s="6" t="n"/>
       <c r="O3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.2" r="4" thickBot="1">
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="6" t="n"/>
+      <c r="S3" s="31" t="inlineStr">
+        <is>
+          <t>Common Lenghts</t>
+        </is>
+      </c>
+      <c r="T3" s="32" t="n"/>
+      <c r="U3" s="33" t="n"/>
+      <c r="V3" s="6" t="n"/>
+      <c r="W3" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="16.2" r="4" thickBot="1">
       <c r="A4" s="1" t="n"/>
       <c r="C4" s="18" t="inlineStr">
         <is>
@@ -2413,6 +2967,25 @@
       </c>
       <c r="N4" s="6" t="n"/>
       <c r="O4" s="1" t="n"/>
+      <c r="Q4" s="1" t="n"/>
+      <c r="R4" s="6" t="n"/>
+      <c r="S4" s="18" t="inlineStr">
+        <is>
+          <t>Length</t>
+        </is>
+      </c>
+      <c r="T4" s="14" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="U4" s="15" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+      <c r="V4" s="6" t="n"/>
+      <c r="W4" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="5" thickBot="1">
       <c r="A5" s="1" t="n"/>
@@ -2421,7 +2994,7 @@
           <t>Type</t>
         </is>
       </c>
-      <c r="D5" s="23" t="inlineStr">
+      <c r="D5" s="26" t="inlineStr">
         <is>
           <t>int</t>
         </is>
@@ -2441,6 +3014,19 @@
       </c>
       <c r="N5" s="6" t="n"/>
       <c r="O5" s="1" t="n"/>
+      <c r="Q5" s="1" t="n"/>
+      <c r="R5" s="6" t="n"/>
+      <c r="S5" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U5" s="16" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="V5" s="6" t="n"/>
+      <c r="W5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -2469,6 +3055,19 @@
       </c>
       <c r="N6" s="6" t="n"/>
       <c r="O6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="6" t="n"/>
+      <c r="S6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="V6" s="6" t="n"/>
+      <c r="W6" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="7" thickBot="1">
       <c r="A7" s="1" t="n"/>
@@ -2491,6 +3090,13 @@
       <c r="M7" s="21" t="n"/>
       <c r="N7" s="6" t="n"/>
       <c r="O7" s="1" t="n"/>
+      <c r="Q7" s="1" t="n"/>
+      <c r="R7" s="6" t="n"/>
+      <c r="S7" s="4" t="n"/>
+      <c r="T7" s="20" t="n"/>
+      <c r="U7" s="21" t="n"/>
+      <c r="V7" s="6" t="n"/>
+      <c r="W7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -2499,7 +3105,7 @@
           <t>Min Value</t>
         </is>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="28" t="n">
         <v>5</v>
       </c>
       <c r="E8" s="34" t="n"/>
@@ -2511,6 +3117,13 @@
       <c r="M8" s="21" t="n"/>
       <c r="N8" s="6" t="n"/>
       <c r="O8" s="1" t="n"/>
+      <c r="Q8" s="1" t="n"/>
+      <c r="R8" s="6" t="n"/>
+      <c r="S8" s="4" t="n"/>
+      <c r="T8" s="20" t="n"/>
+      <c r="U8" s="21" t="n"/>
+      <c r="V8" s="6" t="n"/>
+      <c r="W8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="9" thickBot="1">
       <c r="A9" s="1" t="n"/>
@@ -2519,7 +3132,7 @@
           <t>Max Value</t>
         </is>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="30" t="n">
         <v>10</v>
       </c>
       <c r="E9" s="35" t="n"/>
@@ -2531,6 +3144,13 @@
       <c r="M9" s="21" t="n"/>
       <c r="N9" s="6" t="n"/>
       <c r="O9" s="1" t="n"/>
+      <c r="Q9" s="1" t="n"/>
+      <c r="R9" s="6" t="n"/>
+      <c r="S9" s="4" t="n"/>
+      <c r="T9" s="20" t="n"/>
+      <c r="U9" s="21" t="n"/>
+      <c r="V9" s="6" t="n"/>
+      <c r="W9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="10">
       <c r="A10" s="1" t="n"/>
@@ -2542,6 +3162,13 @@
       <c r="M10" s="21" t="n"/>
       <c r="N10" s="6" t="n"/>
       <c r="O10" s="1" t="n"/>
+      <c r="Q10" s="1" t="n"/>
+      <c r="R10" s="6" t="n"/>
+      <c r="S10" s="4" t="n"/>
+      <c r="T10" s="20" t="n"/>
+      <c r="U10" s="21" t="n"/>
+      <c r="V10" s="6" t="n"/>
+      <c r="W10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="11">
       <c r="A11" s="1" t="n"/>
@@ -2558,6 +3185,13 @@
       <c r="M11" s="21" t="n"/>
       <c r="N11" s="6" t="n"/>
       <c r="O11" s="1" t="n"/>
+      <c r="Q11" s="1" t="n"/>
+      <c r="R11" s="6" t="n"/>
+      <c r="S11" s="4" t="n"/>
+      <c r="T11" s="20" t="n"/>
+      <c r="U11" s="21" t="n"/>
+      <c r="V11" s="6" t="n"/>
+      <c r="W11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="I12" s="1" t="n"/>
@@ -2567,8 +3201,15 @@
       <c r="M12" s="21" t="n"/>
       <c r="N12" s="6" t="n"/>
       <c r="O12" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="13">
+      <c r="Q12" s="1" t="n"/>
+      <c r="R12" s="6" t="n"/>
+      <c r="S12" s="4" t="n"/>
+      <c r="T12" s="20" t="n"/>
+      <c r="U12" s="21" t="n"/>
+      <c r="V12" s="6" t="n"/>
+      <c r="W12" s="1" t="n"/>
+    </row>
+    <row r="13">
       <c r="C13" s="6" t="n"/>
       <c r="I13" s="1" t="n"/>
       <c r="J13" s="6" t="n"/>
@@ -2577,8 +3218,15 @@
       <c r="M13" s="21" t="n"/>
       <c r="N13" s="6" t="n"/>
       <c r="O13" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="14" thickBot="1">
+      <c r="Q13" s="1" t="n"/>
+      <c r="R13" s="6" t="n"/>
+      <c r="S13" s="4" t="n"/>
+      <c r="T13" s="20" t="n"/>
+      <c r="U13" s="21" t="n"/>
+      <c r="V13" s="6" t="n"/>
+      <c r="W13" s="1" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.4" r="14" thickBot="1">
       <c r="C14" s="6" t="n"/>
       <c r="I14" s="1" t="n"/>
       <c r="J14" s="6" t="n"/>
@@ -2587,6 +3235,13 @@
       <c r="M14" s="17" t="n"/>
       <c r="N14" s="6" t="n"/>
       <c r="O14" s="1" t="n"/>
+      <c r="Q14" s="1" t="n"/>
+      <c r="R14" s="6" t="n"/>
+      <c r="S14" s="5" t="n"/>
+      <c r="T14" s="13" t="n"/>
+      <c r="U14" s="17" t="n"/>
+      <c r="V14" s="6" t="n"/>
+      <c r="W14" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="15">
       <c r="C15" s="6" t="n"/>
@@ -2597,6 +3252,13 @@
       <c r="M15" s="6" t="n"/>
       <c r="N15" s="6" t="n"/>
       <c r="O15" s="1" t="n"/>
+      <c r="Q15" s="1" t="n"/>
+      <c r="R15" s="6" t="n"/>
+      <c r="S15" s="7" t="n"/>
+      <c r="T15" s="6" t="n"/>
+      <c r="U15" s="6" t="n"/>
+      <c r="V15" s="6" t="n"/>
+      <c r="W15" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="16">
       <c r="C16" s="6" t="n"/>
@@ -2607,6 +3269,13 @@
       <c r="M16" s="1" t="n"/>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
+      <c r="Q16" s="1" t="n"/>
+      <c r="R16" s="1" t="n"/>
+      <c r="S16" s="8" t="n"/>
+      <c r="T16" s="1" t="n"/>
+      <c r="U16" s="1" t="n"/>
+      <c r="V16" s="1" t="n"/>
+      <c r="W16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="6" t="n"/>
@@ -2629,23 +3298,9 @@
     <row r="23">
       <c r="C23" s="6" t="n"/>
     </row>
-    <row r="24">
-      <c r="C24" s="6" t="n"/>
-    </row>
-    <row r="25">
-      <c r="C25" s="6" t="n"/>
-    </row>
-    <row r="26">
-      <c r="C26" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="27">
-      <c r="C27" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="5.4" r="28">
-      <c r="C28" s="6" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="S3:U3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>

--- a/f_data_exploration/temp.xlsx
+++ b/f_data_exploration/temp.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Column" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="id" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="name" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="medium" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="med" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="volume" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -736,8 +736,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0" zoomScale="170" zoomScaleNormal="170">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" zoomScale="170" zoomScaleNormal="170">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="D5" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="n"/>
     </row>
@@ -827,6 +827,18 @@
       <c r="F8" s="1" t="n"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D5:D6">
+    <cfRule priority="1" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -839,10 +851,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0" zoomScale="170" zoomScaleNormal="170">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView rightToLeft="1" topLeftCell="I1" workbookViewId="0" zoomScale="170" zoomScaleNormal="170">
+      <selection activeCell="U5" sqref="U5:U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
@@ -861,7 +873,12 @@
     <col bestFit="1" customWidth="1" max="19" min="19" style="6" width="7.5"/>
     <col customWidth="1" max="21" min="20" style="6" width="8.796875"/>
     <col customWidth="1" max="23" min="22" style="6" width="1"/>
-    <col customWidth="1" max="16384" min="24" style="6" width="8.796875"/>
+    <col customWidth="1" max="24" min="24" style="6" width="3.69921875"/>
+    <col customWidth="1" max="26" min="25" style="6" width="1"/>
+    <col bestFit="1" customWidth="1" max="27" min="27" style="6" width="7.5"/>
+    <col customWidth="1" max="29" min="28" style="6" width="8.796875"/>
+    <col customWidth="1" max="31" min="30" style="6" width="1"/>
+    <col customWidth="1" max="16384" min="32" style="6" width="8.796875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="6.6" r="1">
@@ -886,6 +903,13 @@
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="n"/>
       <c r="W1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="8" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="2" thickBot="1">
       <c r="A2" s="1" t="n"/>
@@ -904,6 +928,13 @@
       <c r="U2" s="6" t="n"/>
       <c r="V2" s="6" t="n"/>
       <c r="W2" s="1" t="n"/>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="6" t="n"/>
+      <c r="AA2" s="7" t="n"/>
+      <c r="AB2" s="6" t="n"/>
+      <c r="AC2" s="6" t="n"/>
+      <c r="AD2" s="6" t="n"/>
+      <c r="AE2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="1" t="n"/>
@@ -937,6 +968,17 @@
       <c r="U3" s="33" t="n"/>
       <c r="V3" s="6" t="n"/>
       <c r="W3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="6" t="n"/>
+      <c r="AA3" s="31" t="inlineStr">
+        <is>
+          <t>Common Regex</t>
+        </is>
+      </c>
+      <c r="AB3" s="32" t="n"/>
+      <c r="AC3" s="33" t="n"/>
+      <c r="AD3" s="6" t="n"/>
+      <c r="AE3" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="16.2" r="4" thickBot="1">
       <c r="A4" s="1" t="n"/>
@@ -994,6 +1036,25 @@
       </c>
       <c r="V4" s="6" t="n"/>
       <c r="W4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="6" t="n"/>
+      <c r="AA4" s="18" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="AB4" s="14" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="AC4" s="15" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+      <c r="AD4" s="6" t="n"/>
+      <c r="AE4" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="5" thickBot="1">
       <c r="A5" s="1" t="n"/>
@@ -1019,6 +1080,13 @@
       <c r="U5" s="16" t="n"/>
       <c r="V5" s="6" t="n"/>
       <c r="W5" s="1" t="n"/>
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="6" t="n"/>
+      <c r="AA5" s="19" t="n"/>
+      <c r="AB5" s="12" t="n"/>
+      <c r="AC5" s="16" t="n"/>
+      <c r="AD5" s="6" t="n"/>
+      <c r="AE5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -1044,6 +1112,13 @@
       <c r="U6" s="21" t="n"/>
       <c r="V6" s="6" t="n"/>
       <c r="W6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="6" t="n"/>
+      <c r="AA6" s="4" t="n"/>
+      <c r="AB6" s="20" t="n"/>
+      <c r="AC6" s="21" t="n"/>
+      <c r="AD6" s="6" t="n"/>
+      <c r="AE6" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="7" thickBot="1">
       <c r="A7" s="1" t="n"/>
@@ -1069,6 +1144,13 @@
       <c r="U7" s="21" t="n"/>
       <c r="V7" s="6" t="n"/>
       <c r="W7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="6" t="n"/>
+      <c r="AA7" s="4" t="n"/>
+      <c r="AB7" s="20" t="n"/>
+      <c r="AC7" s="21" t="n"/>
+      <c r="AD7" s="6" t="n"/>
+      <c r="AE7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -1094,6 +1176,13 @@
       <c r="U8" s="21" t="n"/>
       <c r="V8" s="6" t="n"/>
       <c r="W8" s="1" t="n"/>
+      <c r="Y8" s="1" t="n"/>
+      <c r="Z8" s="6" t="n"/>
+      <c r="AA8" s="4" t="n"/>
+      <c r="AB8" s="20" t="n"/>
+      <c r="AC8" s="21" t="n"/>
+      <c r="AD8" s="6" t="n"/>
+      <c r="AE8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="9" thickBot="1">
       <c r="A9" s="1" t="n"/>
@@ -1119,6 +1208,13 @@
       <c r="U9" s="21" t="n"/>
       <c r="V9" s="6" t="n"/>
       <c r="W9" s="1" t="n"/>
+      <c r="Y9" s="1" t="n"/>
+      <c r="Z9" s="6" t="n"/>
+      <c r="AA9" s="4" t="n"/>
+      <c r="AB9" s="20" t="n"/>
+      <c r="AC9" s="21" t="n"/>
+      <c r="AD9" s="6" t="n"/>
+      <c r="AE9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="10">
       <c r="A10" s="1" t="n"/>
@@ -1137,6 +1233,13 @@
       <c r="U10" s="21" t="n"/>
       <c r="V10" s="6" t="n"/>
       <c r="W10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="6" t="n"/>
+      <c r="AA10" s="4" t="n"/>
+      <c r="AB10" s="20" t="n"/>
+      <c r="AC10" s="21" t="n"/>
+      <c r="AD10" s="6" t="n"/>
+      <c r="AE10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="11">
       <c r="A11" s="1" t="n"/>
@@ -1160,6 +1263,13 @@
       <c r="U11" s="21" t="n"/>
       <c r="V11" s="6" t="n"/>
       <c r="W11" s="1" t="n"/>
+      <c r="Y11" s="1" t="n"/>
+      <c r="Z11" s="6" t="n"/>
+      <c r="AA11" s="4" t="n"/>
+      <c r="AB11" s="20" t="n"/>
+      <c r="AC11" s="21" t="n"/>
+      <c r="AD11" s="6" t="n"/>
+      <c r="AE11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="I12" s="1" t="n"/>
@@ -1176,6 +1286,13 @@
       <c r="U12" s="21" t="n"/>
       <c r="V12" s="6" t="n"/>
       <c r="W12" s="1" t="n"/>
+      <c r="Y12" s="1" t="n"/>
+      <c r="Z12" s="6" t="n"/>
+      <c r="AA12" s="4" t="n"/>
+      <c r="AB12" s="20" t="n"/>
+      <c r="AC12" s="21" t="n"/>
+      <c r="AD12" s="6" t="n"/>
+      <c r="AE12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="C13" s="6" t="n"/>
@@ -1193,6 +1310,13 @@
       <c r="U13" s="21" t="n"/>
       <c r="V13" s="6" t="n"/>
       <c r="W13" s="1" t="n"/>
+      <c r="Y13" s="1" t="n"/>
+      <c r="Z13" s="6" t="n"/>
+      <c r="AA13" s="4" t="n"/>
+      <c r="AB13" s="20" t="n"/>
+      <c r="AC13" s="21" t="n"/>
+      <c r="AD13" s="6" t="n"/>
+      <c r="AE13" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="14" thickBot="1">
       <c r="C14" s="6" t="n"/>
@@ -1210,6 +1334,13 @@
       <c r="U14" s="17" t="n"/>
       <c r="V14" s="6" t="n"/>
       <c r="W14" s="1" t="n"/>
+      <c r="Y14" s="1" t="n"/>
+      <c r="Z14" s="6" t="n"/>
+      <c r="AA14" s="5" t="n"/>
+      <c r="AB14" s="13" t="n"/>
+      <c r="AC14" s="17" t="n"/>
+      <c r="AD14" s="6" t="n"/>
+      <c r="AE14" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="15">
       <c r="C15" s="6" t="n"/>
@@ -1227,6 +1358,13 @@
       <c r="U15" s="6" t="n"/>
       <c r="V15" s="6" t="n"/>
       <c r="W15" s="1" t="n"/>
+      <c r="Y15" s="1" t="n"/>
+      <c r="Z15" s="6" t="n"/>
+      <c r="AA15" s="7" t="n"/>
+      <c r="AB15" s="6" t="n"/>
+      <c r="AC15" s="6" t="n"/>
+      <c r="AD15" s="6" t="n"/>
+      <c r="AE15" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="16">
       <c r="C16" s="6" t="n"/>
@@ -1244,6 +1382,13 @@
       <c r="U16" s="1" t="n"/>
       <c r="V16" s="1" t="n"/>
       <c r="W16" s="1" t="n"/>
+      <c r="Y16" s="1" t="n"/>
+      <c r="Z16" s="1" t="n"/>
+      <c r="AA16" s="8" t="n"/>
+      <c r="AB16" s="1" t="n"/>
+      <c r="AC16" s="1" t="n"/>
+      <c r="AD16" s="1" t="n"/>
+      <c r="AE16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="6" t="n"/>
@@ -1267,7 +1412,8 @@
       <c r="C23" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D8:E8"/>
@@ -1276,7 +1422,7 @@
     <mergeCell ref="K3:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="E6:E7">
-    <cfRule priority="12" type="colorScale">
+    <cfRule priority="18" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1288,7 +1434,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D7">
-    <cfRule priority="13" type="colorScale">
+    <cfRule priority="19" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1300,7 +1446,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L14">
-    <cfRule priority="8" type="colorScale">
+    <cfRule priority="4" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1312,7 +1458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M14">
-    <cfRule priority="9" type="colorScale">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1324,7 +1470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:E9">
-    <cfRule priority="11" type="colorScale">
+    <cfRule priority="17" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1336,6 +1482,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:T14">
+    <cfRule priority="2" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U5:U14">
     <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
@@ -1347,8 +1505,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U14">
-    <cfRule priority="2" type="colorScale">
+  <conditionalFormatting sqref="AB5:AB14">
+    <cfRule priority="5" type="colorScale">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC5:AC14">
+    <cfRule priority="6" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1371,7 +1541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1393,7 +1563,12 @@
     <col bestFit="1" customWidth="1" max="19" min="19" style="6" width="7.5"/>
     <col customWidth="1" max="21" min="20" style="6" width="8.796875"/>
     <col customWidth="1" max="23" min="22" style="6" width="1"/>
-    <col customWidth="1" max="16384" min="24" style="6" width="8.796875"/>
+    <col customWidth="1" max="24" min="24" style="6" width="3.69921875"/>
+    <col customWidth="1" max="26" min="25" style="6" width="1"/>
+    <col bestFit="1" customWidth="1" max="27" min="27" style="6" width="7.5"/>
+    <col customWidth="1" max="29" min="28" style="6" width="8.796875"/>
+    <col customWidth="1" max="31" min="30" style="6" width="1"/>
+    <col customWidth="1" max="16384" min="32" style="6" width="8.796875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="6.6" r="1">
@@ -1418,6 +1593,13 @@
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="n"/>
       <c r="W1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="8" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="2" thickBot="1">
       <c r="A2" s="1" t="n"/>
@@ -1436,6 +1618,13 @@
       <c r="U2" s="6" t="n"/>
       <c r="V2" s="6" t="n"/>
       <c r="W2" s="1" t="n"/>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="6" t="n"/>
+      <c r="AA2" s="7" t="n"/>
+      <c r="AB2" s="6" t="n"/>
+      <c r="AC2" s="6" t="n"/>
+      <c r="AD2" s="6" t="n"/>
+      <c r="AE2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="1" t="n"/>
@@ -1469,6 +1658,17 @@
       <c r="U3" s="33" t="n"/>
       <c r="V3" s="6" t="n"/>
       <c r="W3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="6" t="n"/>
+      <c r="AA3" s="31" t="inlineStr">
+        <is>
+          <t>Common Regex</t>
+        </is>
+      </c>
+      <c r="AB3" s="32" t="n"/>
+      <c r="AC3" s="33" t="n"/>
+      <c r="AD3" s="6" t="n"/>
+      <c r="AE3" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="16.2" r="4" thickBot="1">
       <c r="A4" s="1" t="n"/>
@@ -1526,6 +1726,25 @@
       </c>
       <c r="V4" s="6" t="n"/>
       <c r="W4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="6" t="n"/>
+      <c r="AA4" s="18" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="AB4" s="14" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="AC4" s="15" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+      <c r="AD4" s="6" t="n"/>
+      <c r="AE4" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="5" thickBot="1">
       <c r="A5" s="1" t="n"/>
@@ -1550,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="16" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="N5" s="6" t="n"/>
       <c r="O5" s="1" t="n"/>
@@ -1560,13 +1779,28 @@
         <v>1</v>
       </c>
       <c r="T5" s="12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U5" s="16" t="n">
         <v>1</v>
       </c>
       <c r="V5" s="6" t="n"/>
       <c r="W5" s="1" t="n"/>
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="6" t="n"/>
+      <c r="AA5" s="19" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="6" t="n"/>
+      <c r="AE5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -1576,10 +1810,10 @@
         </is>
       </c>
       <c r="D6" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="16" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
@@ -1591,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="21" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="N6" s="6" t="n"/>
       <c r="O6" s="1" t="n"/>
@@ -1602,6 +1836,13 @@
       <c r="U6" s="21" t="n"/>
       <c r="V6" s="6" t="n"/>
       <c r="W6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="6" t="n"/>
+      <c r="AA6" s="4" t="n"/>
+      <c r="AB6" s="20" t="n"/>
+      <c r="AC6" s="21" t="n"/>
+      <c r="AD6" s="6" t="n"/>
+      <c r="AE6" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="7" thickBot="1">
       <c r="A7" s="1" t="n"/>
@@ -1619,9 +1860,15 @@
       <c r="G7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
       <c r="J7" s="6" t="n"/>
-      <c r="K7" s="4" t="n"/>
-      <c r="L7" s="20" t="n"/>
-      <c r="M7" s="21" t="n"/>
+      <c r="K7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="21" t="n">
+        <v>0.2</v>
+      </c>
       <c r="N7" s="6" t="n"/>
       <c r="O7" s="1" t="n"/>
       <c r="Q7" s="1" t="n"/>
@@ -1631,6 +1878,13 @@
       <c r="U7" s="21" t="n"/>
       <c r="V7" s="6" t="n"/>
       <c r="W7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="6" t="n"/>
+      <c r="AA7" s="4" t="n"/>
+      <c r="AB7" s="20" t="n"/>
+      <c r="AC7" s="21" t="n"/>
+      <c r="AD7" s="6" t="n"/>
+      <c r="AE7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -1646,9 +1900,15 @@
       <c r="G8" s="1" t="n"/>
       <c r="I8" s="1" t="n"/>
       <c r="J8" s="6" t="n"/>
-      <c r="K8" s="4" t="n"/>
-      <c r="L8" s="20" t="n"/>
-      <c r="M8" s="21" t="n"/>
+      <c r="K8" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="21" t="n">
+        <v>0.2</v>
+      </c>
       <c r="N8" s="6" t="n"/>
       <c r="O8" s="1" t="n"/>
       <c r="Q8" s="1" t="n"/>
@@ -1658,6 +1918,13 @@
       <c r="U8" s="21" t="n"/>
       <c r="V8" s="6" t="n"/>
       <c r="W8" s="1" t="n"/>
+      <c r="Y8" s="1" t="n"/>
+      <c r="Z8" s="6" t="n"/>
+      <c r="AA8" s="4" t="n"/>
+      <c r="AB8" s="20" t="n"/>
+      <c r="AC8" s="21" t="n"/>
+      <c r="AD8" s="6" t="n"/>
+      <c r="AE8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="9" thickBot="1">
       <c r="A9" s="1" t="n"/>
@@ -1667,7 +1934,7 @@
         </is>
       </c>
       <c r="D9" s="30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="35" t="n"/>
       <c r="G9" s="1" t="n"/>
@@ -1685,6 +1952,13 @@
       <c r="U9" s="21" t="n"/>
       <c r="V9" s="6" t="n"/>
       <c r="W9" s="1" t="n"/>
+      <c r="Y9" s="1" t="n"/>
+      <c r="Z9" s="6" t="n"/>
+      <c r="AA9" s="4" t="n"/>
+      <c r="AB9" s="20" t="n"/>
+      <c r="AC9" s="21" t="n"/>
+      <c r="AD9" s="6" t="n"/>
+      <c r="AE9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="10">
       <c r="A10" s="1" t="n"/>
@@ -1703,6 +1977,13 @@
       <c r="U10" s="21" t="n"/>
       <c r="V10" s="6" t="n"/>
       <c r="W10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="6" t="n"/>
+      <c r="AA10" s="4" t="n"/>
+      <c r="AB10" s="20" t="n"/>
+      <c r="AC10" s="21" t="n"/>
+      <c r="AD10" s="6" t="n"/>
+      <c r="AE10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="11">
       <c r="A11" s="1" t="n"/>
@@ -1726,6 +2007,13 @@
       <c r="U11" s="21" t="n"/>
       <c r="V11" s="6" t="n"/>
       <c r="W11" s="1" t="n"/>
+      <c r="Y11" s="1" t="n"/>
+      <c r="Z11" s="6" t="n"/>
+      <c r="AA11" s="4" t="n"/>
+      <c r="AB11" s="20" t="n"/>
+      <c r="AC11" s="21" t="n"/>
+      <c r="AD11" s="6" t="n"/>
+      <c r="AE11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="I12" s="1" t="n"/>
@@ -1742,6 +2030,13 @@
       <c r="U12" s="21" t="n"/>
       <c r="V12" s="6" t="n"/>
       <c r="W12" s="1" t="n"/>
+      <c r="Y12" s="1" t="n"/>
+      <c r="Z12" s="6" t="n"/>
+      <c r="AA12" s="4" t="n"/>
+      <c r="AB12" s="20" t="n"/>
+      <c r="AC12" s="21" t="n"/>
+      <c r="AD12" s="6" t="n"/>
+      <c r="AE12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="C13" s="6" t="n"/>
@@ -1759,6 +2054,13 @@
       <c r="U13" s="21" t="n"/>
       <c r="V13" s="6" t="n"/>
       <c r="W13" s="1" t="n"/>
+      <c r="Y13" s="1" t="n"/>
+      <c r="Z13" s="6" t="n"/>
+      <c r="AA13" s="4" t="n"/>
+      <c r="AB13" s="20" t="n"/>
+      <c r="AC13" s="21" t="n"/>
+      <c r="AD13" s="6" t="n"/>
+      <c r="AE13" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="14" thickBot="1">
       <c r="C14" s="6" t="n"/>
@@ -1776,6 +2078,13 @@
       <c r="U14" s="17" t="n"/>
       <c r="V14" s="6" t="n"/>
       <c r="W14" s="1" t="n"/>
+      <c r="Y14" s="1" t="n"/>
+      <c r="Z14" s="6" t="n"/>
+      <c r="AA14" s="5" t="n"/>
+      <c r="AB14" s="13" t="n"/>
+      <c r="AC14" s="17" t="n"/>
+      <c r="AD14" s="6" t="n"/>
+      <c r="AE14" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="15">
       <c r="C15" s="6" t="n"/>
@@ -1793,6 +2102,13 @@
       <c r="U15" s="6" t="n"/>
       <c r="V15" s="6" t="n"/>
       <c r="W15" s="1" t="n"/>
+      <c r="Y15" s="1" t="n"/>
+      <c r="Z15" s="6" t="n"/>
+      <c r="AA15" s="7" t="n"/>
+      <c r="AB15" s="6" t="n"/>
+      <c r="AC15" s="6" t="n"/>
+      <c r="AD15" s="6" t="n"/>
+      <c r="AE15" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="16">
       <c r="C16" s="6" t="n"/>
@@ -1810,6 +2126,13 @@
       <c r="U16" s="1" t="n"/>
       <c r="V16" s="1" t="n"/>
       <c r="W16" s="1" t="n"/>
+      <c r="Y16" s="1" t="n"/>
+      <c r="Z16" s="1" t="n"/>
+      <c r="AA16" s="8" t="n"/>
+      <c r="AB16" s="1" t="n"/>
+      <c r="AC16" s="1" t="n"/>
+      <c r="AD16" s="1" t="n"/>
+      <c r="AE16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="6" t="n"/>
@@ -1833,7 +2156,8 @@
       <c r="C23" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D8:E8"/>
@@ -1853,7 +2177,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,7 +2199,12 @@
     <col bestFit="1" customWidth="1" max="19" min="19" style="6" width="7.5"/>
     <col customWidth="1" max="21" min="20" style="6" width="8.796875"/>
     <col customWidth="1" max="23" min="22" style="6" width="1"/>
-    <col customWidth="1" max="16384" min="24" style="6" width="8.796875"/>
+    <col customWidth="1" max="24" min="24" style="6" width="3.69921875"/>
+    <col customWidth="1" max="26" min="25" style="6" width="1"/>
+    <col bestFit="1" customWidth="1" max="27" min="27" style="6" width="7.5"/>
+    <col customWidth="1" max="29" min="28" style="6" width="8.796875"/>
+    <col customWidth="1" max="31" min="30" style="6" width="1"/>
+    <col customWidth="1" max="16384" min="32" style="6" width="8.796875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="6.6" r="1">
@@ -1900,6 +2229,13 @@
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="n"/>
       <c r="W1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="8" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="2" thickBot="1">
       <c r="A2" s="1" t="n"/>
@@ -1918,6 +2254,13 @@
       <c r="U2" s="6" t="n"/>
       <c r="V2" s="6" t="n"/>
       <c r="W2" s="1" t="n"/>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="6" t="n"/>
+      <c r="AA2" s="7" t="n"/>
+      <c r="AB2" s="6" t="n"/>
+      <c r="AC2" s="6" t="n"/>
+      <c r="AD2" s="6" t="n"/>
+      <c r="AE2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="1" t="n"/>
@@ -1951,6 +2294,17 @@
       <c r="U3" s="33" t="n"/>
       <c r="V3" s="6" t="n"/>
       <c r="W3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="6" t="n"/>
+      <c r="AA3" s="31" t="inlineStr">
+        <is>
+          <t>Common Regex</t>
+        </is>
+      </c>
+      <c r="AB3" s="32" t="n"/>
+      <c r="AC3" s="33" t="n"/>
+      <c r="AD3" s="6" t="n"/>
+      <c r="AE3" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="16.2" r="4" thickBot="1">
       <c r="A4" s="1" t="n"/>
@@ -2008,6 +2362,25 @@
       </c>
       <c r="V4" s="6" t="n"/>
       <c r="W4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="6" t="n"/>
+      <c r="AA4" s="18" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="AB4" s="14" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="AC4" s="15" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+      <c r="AD4" s="6" t="n"/>
+      <c r="AE4" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="5" thickBot="1">
       <c r="A5" s="1" t="n"/>
@@ -2034,7 +2407,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="16" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="N5" s="6" t="n"/>
       <c r="O5" s="1" t="n"/>
@@ -2044,13 +2417,28 @@
         <v>2</v>
       </c>
       <c r="T5" s="12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U5" s="16" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="V5" s="6" t="n"/>
       <c r="W5" s="1" t="n"/>
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="6" t="n"/>
+      <c r="AA5" s="19" t="inlineStr">
+        <is>
+          <t>ww</t>
+        </is>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD5" s="6" t="n"/>
+      <c r="AE5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -2060,10 +2448,10 @@
         </is>
       </c>
       <c r="D6" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="16" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
@@ -2077,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="21" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="N6" s="6" t="n"/>
       <c r="O6" s="1" t="n"/>
@@ -2090,10 +2478,25 @@
         <v>1</v>
       </c>
       <c r="U6" s="21" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="V6" s="6" t="n"/>
       <c r="W6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="6" t="n"/>
+      <c r="AA6" s="4" t="inlineStr">
+        <is>
+          <t>w</t>
+        </is>
+      </c>
+      <c r="AB6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD6" s="6" t="n"/>
+      <c r="AE6" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="7" thickBot="1">
       <c r="A7" s="1" t="n"/>
@@ -2111,18 +2514,47 @@
       <c r="G7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
       <c r="J7" s="6" t="n"/>
-      <c r="K7" s="4" t="n"/>
-      <c r="L7" s="20" t="n"/>
-      <c r="M7" s="21" t="n"/>
+      <c r="K7" s="4" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="L7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="21" t="n">
+        <v>0.2</v>
+      </c>
       <c r="N7" s="6" t="n"/>
       <c r="O7" s="1" t="n"/>
       <c r="Q7" s="1" t="n"/>
       <c r="R7" s="6" t="n"/>
-      <c r="S7" s="4" t="n"/>
-      <c r="T7" s="20" t="n"/>
-      <c r="U7" s="21" t="n"/>
+      <c r="S7" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="21" t="n">
+        <v>0.2</v>
+      </c>
       <c r="V7" s="6" t="n"/>
       <c r="W7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="6" t="n"/>
+      <c r="AA7" s="4" t="inlineStr">
+        <is>
+          <t>www</t>
+        </is>
+      </c>
+      <c r="AB7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD7" s="6" t="n"/>
+      <c r="AE7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -2140,9 +2572,17 @@
       <c r="G8" s="1" t="n"/>
       <c r="I8" s="1" t="n"/>
       <c r="J8" s="6" t="n"/>
-      <c r="K8" s="4" t="n"/>
-      <c r="L8" s="20" t="n"/>
-      <c r="M8" s="21" t="n"/>
+      <c r="K8" s="4" t="inlineStr">
+        <is>
+          <t>DDD</t>
+        </is>
+      </c>
+      <c r="L8" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="21" t="n">
+        <v>0.2</v>
+      </c>
       <c r="N8" s="6" t="n"/>
       <c r="O8" s="1" t="n"/>
       <c r="Q8" s="1" t="n"/>
@@ -2152,6 +2592,13 @@
       <c r="U8" s="21" t="n"/>
       <c r="V8" s="6" t="n"/>
       <c r="W8" s="1" t="n"/>
+      <c r="Y8" s="1" t="n"/>
+      <c r="Z8" s="6" t="n"/>
+      <c r="AA8" s="4" t="n"/>
+      <c r="AB8" s="20" t="n"/>
+      <c r="AC8" s="21" t="n"/>
+      <c r="AD8" s="6" t="n"/>
+      <c r="AE8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="9" thickBot="1">
       <c r="A9" s="1" t="n"/>
@@ -2162,7 +2609,7 @@
       </c>
       <c r="D9" s="30" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>DDD</t>
         </is>
       </c>
       <c r="E9" s="35" t="n"/>
@@ -2181,6 +2628,13 @@
       <c r="U9" s="21" t="n"/>
       <c r="V9" s="6" t="n"/>
       <c r="W9" s="1" t="n"/>
+      <c r="Y9" s="1" t="n"/>
+      <c r="Z9" s="6" t="n"/>
+      <c r="AA9" s="4" t="n"/>
+      <c r="AB9" s="20" t="n"/>
+      <c r="AC9" s="21" t="n"/>
+      <c r="AD9" s="6" t="n"/>
+      <c r="AE9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="10">
       <c r="A10" s="1" t="n"/>
@@ -2199,6 +2653,13 @@
       <c r="U10" s="21" t="n"/>
       <c r="V10" s="6" t="n"/>
       <c r="W10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="6" t="n"/>
+      <c r="AA10" s="4" t="n"/>
+      <c r="AB10" s="20" t="n"/>
+      <c r="AC10" s="21" t="n"/>
+      <c r="AD10" s="6" t="n"/>
+      <c r="AE10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="11">
       <c r="A11" s="1" t="n"/>
@@ -2222,6 +2683,13 @@
       <c r="U11" s="21" t="n"/>
       <c r="V11" s="6" t="n"/>
       <c r="W11" s="1" t="n"/>
+      <c r="Y11" s="1" t="n"/>
+      <c r="Z11" s="6" t="n"/>
+      <c r="AA11" s="4" t="n"/>
+      <c r="AB11" s="20" t="n"/>
+      <c r="AC11" s="21" t="n"/>
+      <c r="AD11" s="6" t="n"/>
+      <c r="AE11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="I12" s="1" t="n"/>
@@ -2238,6 +2706,13 @@
       <c r="U12" s="21" t="n"/>
       <c r="V12" s="6" t="n"/>
       <c r="W12" s="1" t="n"/>
+      <c r="Y12" s="1" t="n"/>
+      <c r="Z12" s="6" t="n"/>
+      <c r="AA12" s="4" t="n"/>
+      <c r="AB12" s="20" t="n"/>
+      <c r="AC12" s="21" t="n"/>
+      <c r="AD12" s="6" t="n"/>
+      <c r="AE12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="C13" s="6" t="n"/>
@@ -2255,6 +2730,13 @@
       <c r="U13" s="21" t="n"/>
       <c r="V13" s="6" t="n"/>
       <c r="W13" s="1" t="n"/>
+      <c r="Y13" s="1" t="n"/>
+      <c r="Z13" s="6" t="n"/>
+      <c r="AA13" s="4" t="n"/>
+      <c r="AB13" s="20" t="n"/>
+      <c r="AC13" s="21" t="n"/>
+      <c r="AD13" s="6" t="n"/>
+      <c r="AE13" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="14" thickBot="1">
       <c r="C14" s="6" t="n"/>
@@ -2272,6 +2754,13 @@
       <c r="U14" s="17" t="n"/>
       <c r="V14" s="6" t="n"/>
       <c r="W14" s="1" t="n"/>
+      <c r="Y14" s="1" t="n"/>
+      <c r="Z14" s="6" t="n"/>
+      <c r="AA14" s="5" t="n"/>
+      <c r="AB14" s="13" t="n"/>
+      <c r="AC14" s="17" t="n"/>
+      <c r="AD14" s="6" t="n"/>
+      <c r="AE14" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="15">
       <c r="C15" s="6" t="n"/>
@@ -2289,6 +2778,13 @@
       <c r="U15" s="6" t="n"/>
       <c r="V15" s="6" t="n"/>
       <c r="W15" s="1" t="n"/>
+      <c r="Y15" s="1" t="n"/>
+      <c r="Z15" s="6" t="n"/>
+      <c r="AA15" s="7" t="n"/>
+      <c r="AB15" s="6" t="n"/>
+      <c r="AC15" s="6" t="n"/>
+      <c r="AD15" s="6" t="n"/>
+      <c r="AE15" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="16">
       <c r="C16" s="6" t="n"/>
@@ -2306,6 +2802,13 @@
       <c r="U16" s="1" t="n"/>
       <c r="V16" s="1" t="n"/>
       <c r="W16" s="1" t="n"/>
+      <c r="Y16" s="1" t="n"/>
+      <c r="Z16" s="1" t="n"/>
+      <c r="AA16" s="8" t="n"/>
+      <c r="AB16" s="1" t="n"/>
+      <c r="AC16" s="1" t="n"/>
+      <c r="AD16" s="1" t="n"/>
+      <c r="AE16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="6" t="n"/>
@@ -2329,7 +2832,8 @@
       <c r="C23" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D8:E8"/>
@@ -2349,7 +2853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2371,7 +2875,12 @@
     <col bestFit="1" customWidth="1" max="19" min="19" style="6" width="7.5"/>
     <col customWidth="1" max="21" min="20" style="6" width="8.796875"/>
     <col customWidth="1" max="23" min="22" style="6" width="1"/>
-    <col customWidth="1" max="16384" min="24" style="6" width="8.796875"/>
+    <col customWidth="1" max="24" min="24" style="6" width="3.69921875"/>
+    <col customWidth="1" max="26" min="25" style="6" width="1"/>
+    <col bestFit="1" customWidth="1" max="27" min="27" style="6" width="7.5"/>
+    <col customWidth="1" max="29" min="28" style="6" width="8.796875"/>
+    <col customWidth="1" max="31" min="30" style="6" width="1"/>
+    <col customWidth="1" max="16384" min="32" style="6" width="8.796875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="6.6" r="1">
@@ -2396,6 +2905,13 @@
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="n"/>
       <c r="W1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="8" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="2" thickBot="1">
       <c r="A2" s="1" t="n"/>
@@ -2414,6 +2930,13 @@
       <c r="U2" s="6" t="n"/>
       <c r="V2" s="6" t="n"/>
       <c r="W2" s="1" t="n"/>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="6" t="n"/>
+      <c r="AA2" s="7" t="n"/>
+      <c r="AB2" s="6" t="n"/>
+      <c r="AC2" s="6" t="n"/>
+      <c r="AD2" s="6" t="n"/>
+      <c r="AE2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="1" t="n"/>
@@ -2447,6 +2970,17 @@
       <c r="U3" s="33" t="n"/>
       <c r="V3" s="6" t="n"/>
       <c r="W3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="6" t="n"/>
+      <c r="AA3" s="31" t="inlineStr">
+        <is>
+          <t>Common Regex</t>
+        </is>
+      </c>
+      <c r="AB3" s="32" t="n"/>
+      <c r="AC3" s="33" t="n"/>
+      <c r="AD3" s="6" t="n"/>
+      <c r="AE3" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="16.2" r="4" thickBot="1">
       <c r="A4" s="1" t="n"/>
@@ -2504,6 +3038,25 @@
       </c>
       <c r="V4" s="6" t="n"/>
       <c r="W4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="6" t="n"/>
+      <c r="AA4" s="18" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="AB4" s="14" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="AC4" s="15" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+      <c r="AD4" s="6" t="n"/>
+      <c r="AE4" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="5" thickBot="1">
       <c r="A5" s="1" t="n"/>
@@ -2528,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="M5" s="16" t="n">
-        <v>0.67</v>
+        <v>0.4</v>
       </c>
       <c r="N5" s="6" t="n"/>
       <c r="O5" s="1" t="n"/>
@@ -2541,10 +3094,25 @@
         <v>3</v>
       </c>
       <c r="U5" s="16" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="V5" s="6" t="n"/>
       <c r="W5" s="1" t="n"/>
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="6" t="n"/>
+      <c r="AA5" s="19" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="16" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AD5" s="6" t="n"/>
+      <c r="AE5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -2554,10 +3122,10 @@
         </is>
       </c>
       <c r="D6" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" s="16" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="G6" s="1" t="n"/>
       <c r="I6" s="1" t="n"/>
@@ -2569,17 +3137,38 @@
         <v>1</v>
       </c>
       <c r="M6" s="21" t="n">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="N6" s="6" t="n"/>
       <c r="O6" s="1" t="n"/>
       <c r="Q6" s="1" t="n"/>
       <c r="R6" s="6" t="n"/>
-      <c r="S6" s="4" t="n"/>
-      <c r="T6" s="20" t="n"/>
-      <c r="U6" s="21" t="n"/>
+      <c r="S6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" s="21" t="n">
+        <v>0.2</v>
+      </c>
       <c r="V6" s="6" t="n"/>
       <c r="W6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="6" t="n"/>
+      <c r="AA6" s="4" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="AB6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD6" s="6" t="n"/>
+      <c r="AE6" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="7" thickBot="1">
       <c r="A7" s="1" t="n"/>
@@ -2597,18 +3186,45 @@
       <c r="G7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
       <c r="J7" s="6" t="n"/>
-      <c r="K7" s="4" t="n"/>
-      <c r="L7" s="20" t="n"/>
-      <c r="M7" s="21" t="n"/>
+      <c r="K7" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="21" t="n">
+        <v>0.2</v>
+      </c>
       <c r="N7" s="6" t="n"/>
       <c r="O7" s="1" t="n"/>
       <c r="Q7" s="1" t="n"/>
       <c r="R7" s="6" t="n"/>
-      <c r="S7" s="4" t="n"/>
-      <c r="T7" s="20" t="n"/>
-      <c r="U7" s="21" t="n"/>
+      <c r="S7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="21" t="n">
+        <v>0.2</v>
+      </c>
       <c r="V7" s="6" t="n"/>
       <c r="W7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="6" t="n"/>
+      <c r="AA7" s="4" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="AB7" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AD7" s="6" t="n"/>
+      <c r="AE7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -2618,15 +3234,21 @@
         </is>
       </c>
       <c r="D8" s="28" t="n">
-        <v>888</v>
+        <v>7</v>
       </c>
       <c r="E8" s="34" t="n"/>
       <c r="G8" s="1" t="n"/>
       <c r="I8" s="1" t="n"/>
       <c r="J8" s="6" t="n"/>
-      <c r="K8" s="4" t="n"/>
-      <c r="L8" s="20" t="n"/>
-      <c r="M8" s="21" t="n"/>
+      <c r="K8" s="4" t="n">
+        <v>66</v>
+      </c>
+      <c r="L8" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="21" t="n">
+        <v>0.2</v>
+      </c>
       <c r="N8" s="6" t="n"/>
       <c r="O8" s="1" t="n"/>
       <c r="Q8" s="1" t="n"/>
@@ -2636,6 +3258,13 @@
       <c r="U8" s="21" t="n"/>
       <c r="V8" s="6" t="n"/>
       <c r="W8" s="1" t="n"/>
+      <c r="Y8" s="1" t="n"/>
+      <c r="Z8" s="6" t="n"/>
+      <c r="AA8" s="4" t="n"/>
+      <c r="AB8" s="20" t="n"/>
+      <c r="AC8" s="21" t="n"/>
+      <c r="AD8" s="6" t="n"/>
+      <c r="AE8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="9" thickBot="1">
       <c r="A9" s="1" t="n"/>
@@ -2663,6 +3292,13 @@
       <c r="U9" s="21" t="n"/>
       <c r="V9" s="6" t="n"/>
       <c r="W9" s="1" t="n"/>
+      <c r="Y9" s="1" t="n"/>
+      <c r="Z9" s="6" t="n"/>
+      <c r="AA9" s="4" t="n"/>
+      <c r="AB9" s="20" t="n"/>
+      <c r="AC9" s="21" t="n"/>
+      <c r="AD9" s="6" t="n"/>
+      <c r="AE9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="10">
       <c r="A10" s="1" t="n"/>
@@ -2681,6 +3317,13 @@
       <c r="U10" s="21" t="n"/>
       <c r="V10" s="6" t="n"/>
       <c r="W10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="6" t="n"/>
+      <c r="AA10" s="4" t="n"/>
+      <c r="AB10" s="20" t="n"/>
+      <c r="AC10" s="21" t="n"/>
+      <c r="AD10" s="6" t="n"/>
+      <c r="AE10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="11">
       <c r="A11" s="1" t="n"/>
@@ -2704,6 +3347,13 @@
       <c r="U11" s="21" t="n"/>
       <c r="V11" s="6" t="n"/>
       <c r="W11" s="1" t="n"/>
+      <c r="Y11" s="1" t="n"/>
+      <c r="Z11" s="6" t="n"/>
+      <c r="AA11" s="4" t="n"/>
+      <c r="AB11" s="20" t="n"/>
+      <c r="AC11" s="21" t="n"/>
+      <c r="AD11" s="6" t="n"/>
+      <c r="AE11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="I12" s="1" t="n"/>
@@ -2720,6 +3370,13 @@
       <c r="U12" s="21" t="n"/>
       <c r="V12" s="6" t="n"/>
       <c r="W12" s="1" t="n"/>
+      <c r="Y12" s="1" t="n"/>
+      <c r="Z12" s="6" t="n"/>
+      <c r="AA12" s="4" t="n"/>
+      <c r="AB12" s="20" t="n"/>
+      <c r="AC12" s="21" t="n"/>
+      <c r="AD12" s="6" t="n"/>
+      <c r="AE12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="C13" s="6" t="n"/>
@@ -2737,6 +3394,13 @@
       <c r="U13" s="21" t="n"/>
       <c r="V13" s="6" t="n"/>
       <c r="W13" s="1" t="n"/>
+      <c r="Y13" s="1" t="n"/>
+      <c r="Z13" s="6" t="n"/>
+      <c r="AA13" s="4" t="n"/>
+      <c r="AB13" s="20" t="n"/>
+      <c r="AC13" s="21" t="n"/>
+      <c r="AD13" s="6" t="n"/>
+      <c r="AE13" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="14" thickBot="1">
       <c r="C14" s="6" t="n"/>
@@ -2754,6 +3418,13 @@
       <c r="U14" s="17" t="n"/>
       <c r="V14" s="6" t="n"/>
       <c r="W14" s="1" t="n"/>
+      <c r="Y14" s="1" t="n"/>
+      <c r="Z14" s="6" t="n"/>
+      <c r="AA14" s="5" t="n"/>
+      <c r="AB14" s="13" t="n"/>
+      <c r="AC14" s="17" t="n"/>
+      <c r="AD14" s="6" t="n"/>
+      <c r="AE14" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="15">
       <c r="C15" s="6" t="n"/>
@@ -2771,6 +3442,13 @@
       <c r="U15" s="6" t="n"/>
       <c r="V15" s="6" t="n"/>
       <c r="W15" s="1" t="n"/>
+      <c r="Y15" s="1" t="n"/>
+      <c r="Z15" s="6" t="n"/>
+      <c r="AA15" s="7" t="n"/>
+      <c r="AB15" s="6" t="n"/>
+      <c r="AC15" s="6" t="n"/>
+      <c r="AD15" s="6" t="n"/>
+      <c r="AE15" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="16">
       <c r="C16" s="6" t="n"/>
@@ -2788,6 +3466,13 @@
       <c r="U16" s="1" t="n"/>
       <c r="V16" s="1" t="n"/>
       <c r="W16" s="1" t="n"/>
+      <c r="Y16" s="1" t="n"/>
+      <c r="Z16" s="1" t="n"/>
+      <c r="AA16" s="8" t="n"/>
+      <c r="AB16" s="1" t="n"/>
+      <c r="AC16" s="1" t="n"/>
+      <c r="AD16" s="1" t="n"/>
+      <c r="AE16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="6" t="n"/>
@@ -2811,7 +3496,8 @@
       <c r="C23" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D8:E8"/>
@@ -2831,7 +3517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2853,7 +3539,12 @@
     <col bestFit="1" customWidth="1" max="19" min="19" style="6" width="7.5"/>
     <col customWidth="1" max="21" min="20" style="6" width="8.796875"/>
     <col customWidth="1" max="23" min="22" style="6" width="1"/>
-    <col customWidth="1" max="16384" min="24" style="6" width="8.796875"/>
+    <col customWidth="1" max="24" min="24" style="6" width="3.69921875"/>
+    <col customWidth="1" max="26" min="25" style="6" width="1"/>
+    <col bestFit="1" customWidth="1" max="27" min="27" style="6" width="7.5"/>
+    <col customWidth="1" max="29" min="28" style="6" width="8.796875"/>
+    <col customWidth="1" max="31" min="30" style="6" width="1"/>
+    <col customWidth="1" max="16384" min="32" style="6" width="8.796875"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="6.6" r="1">
@@ -2878,6 +3569,13 @@
       <c r="U1" s="1" t="n"/>
       <c r="V1" s="1" t="n"/>
       <c r="W1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
+      <c r="AA1" s="8" t="n"/>
+      <c r="AB1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="n"/>
+      <c r="AE1" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="2" thickBot="1">
       <c r="A2" s="1" t="n"/>
@@ -2896,6 +3594,13 @@
       <c r="U2" s="6" t="n"/>
       <c r="V2" s="6" t="n"/>
       <c r="W2" s="1" t="n"/>
+      <c r="Y2" s="1" t="n"/>
+      <c r="Z2" s="6" t="n"/>
+      <c r="AA2" s="7" t="n"/>
+      <c r="AB2" s="6" t="n"/>
+      <c r="AC2" s="6" t="n"/>
+      <c r="AD2" s="6" t="n"/>
+      <c r="AE2" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="18" r="3" thickBot="1">
       <c r="A3" s="1" t="n"/>
@@ -2929,6 +3634,17 @@
       <c r="U3" s="33" t="n"/>
       <c r="V3" s="6" t="n"/>
       <c r="W3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="6" t="n"/>
+      <c r="AA3" s="31" t="inlineStr">
+        <is>
+          <t>Common Regex</t>
+        </is>
+      </c>
+      <c r="AB3" s="32" t="n"/>
+      <c r="AC3" s="33" t="n"/>
+      <c r="AD3" s="6" t="n"/>
+      <c r="AE3" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="16.2" r="4" thickBot="1">
       <c r="A4" s="1" t="n"/>
@@ -2986,6 +3702,25 @@
       </c>
       <c r="V4" s="6" t="n"/>
       <c r="W4" s="1" t="n"/>
+      <c r="Y4" s="1" t="n"/>
+      <c r="Z4" s="6" t="n"/>
+      <c r="AA4" s="18" t="inlineStr">
+        <is>
+          <t>Regex</t>
+        </is>
+      </c>
+      <c r="AB4" s="14" t="inlineStr">
+        <is>
+          <t>Count</t>
+        </is>
+      </c>
+      <c r="AC4" s="15" t="inlineStr">
+        <is>
+          <t>Percent</t>
+        </is>
+      </c>
+      <c r="AD4" s="6" t="n"/>
+      <c r="AE4" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="5" thickBot="1">
       <c r="A5" s="1" t="n"/>
@@ -2996,7 +3731,7 @@
       </c>
       <c r="D5" s="26" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>float</t>
         </is>
       </c>
       <c r="E5" s="33" t="n"/>
@@ -3017,7 +3752,7 @@
       <c r="Q5" s="1" t="n"/>
       <c r="R5" s="6" t="n"/>
       <c r="S5" s="19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5" s="12" t="n">
         <v>2</v>
@@ -3027,6 +3762,21 @@
       </c>
       <c r="V5" s="6" t="n"/>
       <c r="W5" s="1" t="n"/>
+      <c r="Y5" s="1" t="n"/>
+      <c r="Z5" s="6" t="n"/>
+      <c r="AA5" s="19" t="inlineStr">
+        <is>
+          <t>dxd</t>
+        </is>
+      </c>
+      <c r="AB5" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="16" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AD5" s="6" t="n"/>
+      <c r="AE5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
@@ -3058,7 +3808,7 @@
       <c r="Q6" s="1" t="n"/>
       <c r="R6" s="6" t="n"/>
       <c r="S6" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T6" s="20" t="n">
         <v>1</v>
@@ -3068,6 +3818,21 @@
       </c>
       <c r="V6" s="6" t="n"/>
       <c r="W6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="6" t="n"/>
+      <c r="AA6" s="4" t="inlineStr">
+        <is>
+          <t>ddxd</t>
+        </is>
+      </c>
+      <c r="AB6" s="20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="21" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AD6" s="6" t="n"/>
+      <c r="AE6" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="7" thickBot="1">
       <c r="A7" s="1" t="n"/>
@@ -3077,10 +3842,10 @@
         </is>
       </c>
       <c r="D7" s="13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" s="17" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G7" s="1" t="n"/>
       <c r="I7" s="1" t="n"/>
@@ -3097,6 +3862,13 @@
       <c r="U7" s="21" t="n"/>
       <c r="V7" s="6" t="n"/>
       <c r="W7" s="1" t="n"/>
+      <c r="Y7" s="1" t="n"/>
+      <c r="Z7" s="6" t="n"/>
+      <c r="AA7" s="4" t="n"/>
+      <c r="AB7" s="20" t="n"/>
+      <c r="AC7" s="21" t="n"/>
+      <c r="AD7" s="6" t="n"/>
+      <c r="AE7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
@@ -3124,6 +3896,13 @@
       <c r="U8" s="21" t="n"/>
       <c r="V8" s="6" t="n"/>
       <c r="W8" s="1" t="n"/>
+      <c r="Y8" s="1" t="n"/>
+      <c r="Z8" s="6" t="n"/>
+      <c r="AA8" s="4" t="n"/>
+      <c r="AB8" s="20" t="n"/>
+      <c r="AC8" s="21" t="n"/>
+      <c r="AD8" s="6" t="n"/>
+      <c r="AE8" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="9" thickBot="1">
       <c r="A9" s="1" t="n"/>
@@ -3151,6 +3930,13 @@
       <c r="U9" s="21" t="n"/>
       <c r="V9" s="6" t="n"/>
       <c r="W9" s="1" t="n"/>
+      <c r="Y9" s="1" t="n"/>
+      <c r="Z9" s="6" t="n"/>
+      <c r="AA9" s="4" t="n"/>
+      <c r="AB9" s="20" t="n"/>
+      <c r="AC9" s="21" t="n"/>
+      <c r="AD9" s="6" t="n"/>
+      <c r="AE9" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="10">
       <c r="A10" s="1" t="n"/>
@@ -3169,6 +3955,13 @@
       <c r="U10" s="21" t="n"/>
       <c r="V10" s="6" t="n"/>
       <c r="W10" s="1" t="n"/>
+      <c r="Y10" s="1" t="n"/>
+      <c r="Z10" s="6" t="n"/>
+      <c r="AA10" s="4" t="n"/>
+      <c r="AB10" s="20" t="n"/>
+      <c r="AC10" s="21" t="n"/>
+      <c r="AD10" s="6" t="n"/>
+      <c r="AE10" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="6.6" r="11">
       <c r="A11" s="1" t="n"/>
@@ -3192,6 +3985,13 @@
       <c r="U11" s="21" t="n"/>
       <c r="V11" s="6" t="n"/>
       <c r="W11" s="1" t="n"/>
+      <c r="Y11" s="1" t="n"/>
+      <c r="Z11" s="6" t="n"/>
+      <c r="AA11" s="4" t="n"/>
+      <c r="AB11" s="20" t="n"/>
+      <c r="AC11" s="21" t="n"/>
+      <c r="AD11" s="6" t="n"/>
+      <c r="AE11" s="1" t="n"/>
     </row>
     <row r="12">
       <c r="I12" s="1" t="n"/>
@@ -3208,6 +4008,13 @@
       <c r="U12" s="21" t="n"/>
       <c r="V12" s="6" t="n"/>
       <c r="W12" s="1" t="n"/>
+      <c r="Y12" s="1" t="n"/>
+      <c r="Z12" s="6" t="n"/>
+      <c r="AA12" s="4" t="n"/>
+      <c r="AB12" s="20" t="n"/>
+      <c r="AC12" s="21" t="n"/>
+      <c r="AD12" s="6" t="n"/>
+      <c r="AE12" s="1" t="n"/>
     </row>
     <row r="13">
       <c r="C13" s="6" t="n"/>
@@ -3225,6 +4032,13 @@
       <c r="U13" s="21" t="n"/>
       <c r="V13" s="6" t="n"/>
       <c r="W13" s="1" t="n"/>
+      <c r="Y13" s="1" t="n"/>
+      <c r="Z13" s="6" t="n"/>
+      <c r="AA13" s="4" t="n"/>
+      <c r="AB13" s="20" t="n"/>
+      <c r="AC13" s="21" t="n"/>
+      <c r="AD13" s="6" t="n"/>
+      <c r="AE13" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="14.4" r="14" thickBot="1">
       <c r="C14" s="6" t="n"/>
@@ -3242,6 +4056,13 @@
       <c r="U14" s="17" t="n"/>
       <c r="V14" s="6" t="n"/>
       <c r="W14" s="1" t="n"/>
+      <c r="Y14" s="1" t="n"/>
+      <c r="Z14" s="6" t="n"/>
+      <c r="AA14" s="5" t="n"/>
+      <c r="AB14" s="13" t="n"/>
+      <c r="AC14" s="17" t="n"/>
+      <c r="AD14" s="6" t="n"/>
+      <c r="AE14" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="15">
       <c r="C15" s="6" t="n"/>
@@ -3259,6 +4080,13 @@
       <c r="U15" s="6" t="n"/>
       <c r="V15" s="6" t="n"/>
       <c r="W15" s="1" t="n"/>
+      <c r="Y15" s="1" t="n"/>
+      <c r="Z15" s="6" t="n"/>
+      <c r="AA15" s="7" t="n"/>
+      <c r="AB15" s="6" t="n"/>
+      <c r="AC15" s="6" t="n"/>
+      <c r="AD15" s="6" t="n"/>
+      <c r="AE15" s="1" t="n"/>
     </row>
     <row customHeight="1" ht="5.4" r="16">
       <c r="C16" s="6" t="n"/>
@@ -3276,6 +4104,13 @@
       <c r="U16" s="1" t="n"/>
       <c r="V16" s="1" t="n"/>
       <c r="W16" s="1" t="n"/>
+      <c r="Y16" s="1" t="n"/>
+      <c r="Z16" s="1" t="n"/>
+      <c r="AA16" s="8" t="n"/>
+      <c r="AB16" s="1" t="n"/>
+      <c r="AC16" s="1" t="n"/>
+      <c r="AD16" s="1" t="n"/>
+      <c r="AE16" s="1" t="n"/>
     </row>
     <row r="17">
       <c r="C17" s="6" t="n"/>
@@ -3299,7 +4134,8 @@
       <c r="C23" s="6" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D8:E8"/>
